--- a/REGULAR/OJT/BAYBAY, MA. PAZ.xlsx
+++ b/REGULAR/OJT/BAYBAY, MA. PAZ.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
-  <workbookPr codeName="ThisWorkbook"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DOLE\Desktop\LEAVE-CARD\REGULAR\OJT\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\DOLE-PC\Users\DOLE\Desktop\LEAVE-CARD\REGULAR\OJT\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1EAE010-1636-4478-A2AB-831B94AD91AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="19410" windowHeight="11010" activeTab="1"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="INSTRUCTION" sheetId="4" r:id="rId1"/>
@@ -24,25 +25,17 @@
     <definedName name="BALANCE_1">Table1[[#Headers],[BALANCE]]</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">Sheet1!$1:$9</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="350" uniqueCount="220">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="358" uniqueCount="225">
   <si>
     <t>PERIOD</t>
   </si>
@@ -170,9 +163,6 @@
     <t>SL EARNED</t>
   </si>
   <si>
-    <t>BAYBAY, MA. PAZ</t>
-  </si>
-  <si>
     <t>2001</t>
   </si>
   <si>
@@ -702,12 +692,30 @@
   </si>
   <si>
     <t>9/20,22/2023</t>
+  </si>
+  <si>
+    <t>BAYBAY, MA. PAZ RAMOS</t>
+  </si>
+  <si>
+    <t>LICENSING OFFICER III</t>
+  </si>
+  <si>
+    <t>PERMANENT</t>
+  </si>
+  <si>
+    <t>BPLO</t>
+  </si>
+  <si>
+    <t>12/22-29/2023</t>
+  </si>
+  <si>
+    <t>11/21-22/2023</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="mm/dd/yy;@"/>
@@ -1089,10 +1097,10 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -1582,7 +1590,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1625,7 +1633,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1689,7 +1697,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1749,7 +1757,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1815,7 +1823,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1878,7 +1886,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1976,7 +1984,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2035,7 +2043,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2100,7 +2108,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2143,7 +2151,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2218,7 +2226,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2404,7 +2412,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2470,7 +2478,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2528,7 +2536,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2594,7 +2602,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2650,7 +2658,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2725,7 +2733,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2768,7 +2776,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2834,7 +2842,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2890,7 +2898,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2988,7 +2996,7 @@
         <xdr:cNvPr id="2" name="Rectangle 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3051,7 +3059,7 @@
         <xdr:cNvPr id="3" name="Rectangle 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3100,7 +3108,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Sheet1"/>
@@ -3117,25 +3125,25 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K369" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A8:K371" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
   <tableColumns count="11">
-    <tableColumn id="1" name="PERIOD" dataDxfId="20"/>
-    <tableColumn id="2" name="PARTICULARS" dataDxfId="19"/>
-    <tableColumn id="3" name="EARNED" dataDxfId="18"/>
-    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="17"/>
-    <tableColumn id="5" name="BALANCE" dataDxfId="16">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="PERIOD" dataDxfId="20"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="PARTICULARS" dataDxfId="19"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="EARNED" dataDxfId="18"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Absence Undertime W/ Pay" dataDxfId="17"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="BALANCE" dataDxfId="16">
       <calculatedColumnFormula>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="15"/>
-    <tableColumn id="7" name="EARNED " dataDxfId="14">
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Absence Undertime W/O Pay" dataDxfId="15"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="EARNED " dataDxfId="14">
       <calculatedColumnFormula>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="13"/>
-    <tableColumn id="9" name="BALANCE " dataDxfId="12">
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Absence Undertime  W/ Pay" dataDxfId="13"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="BALANCE " dataDxfId="12">
       <calculatedColumnFormula>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="11"/>
-    <tableColumn id="11" name="REMARKS" dataDxfId="10"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Absence Undertime  W/O Pay" dataDxfId="11"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="REMARKS" dataDxfId="10"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -3147,13 +3155,13 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="D2:G3" totalsRowShown="0" headerRowDxfId="9" headerRowBorderDxfId="8" tableBorderDxfId="7" totalsRowBorderDxfId="6">
-  <autoFilter ref="D2:G3"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table2" displayName="Table2" ref="D2:G3" totalsRowShown="0" headerRowDxfId="9" headerRowBorderDxfId="8" tableBorderDxfId="7" totalsRowBorderDxfId="6">
+  <autoFilter ref="D2:G3" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="4">
-    <tableColumn id="1" name="DAYS"/>
-    <tableColumn id="2" name="HOURS"/>
-    <tableColumn id="3" name="MINUTES"/>
-    <tableColumn id="4" name="EQUIVALENT HOURS" dataDxfId="5">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="DAYS"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="HOURS"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="MINUTES"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="EQUIVALENT HOURS" dataDxfId="5">
       <calculatedColumnFormula>SUMIFS(F7:F14,E7:E14,E3)+SUMIFS(D7:D66,C7:C66,F3)+D3</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -3162,14 +3170,14 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="J2:L3" totalsRowShown="0" headerRowBorderDxfId="4" tableBorderDxfId="3">
-  <autoFilter ref="J2:L3"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table3" displayName="Table3" ref="J2:L3" totalsRowShown="0" headerRowBorderDxfId="4" tableBorderDxfId="3">
+  <autoFilter ref="J2:L3" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
   <tableColumns count="3">
-    <tableColumn id="1" name="DATE STARTED" dataDxfId="2"/>
-    <tableColumn id="2" name="LEAVE EARN" dataDxfId="1">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="DATE STARTED" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="LEAVE EARN" dataDxfId="1">
       <calculatedColumnFormula>J4-1</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" name="LEAVE EARNED" dataDxfId="0">
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="LEAVE EARNED" dataDxfId="0">
       <calculatedColumnFormula>IF($J$4=1,1.25,IF(ISBLANK($J$3),"---",1.25-VLOOKUP($K$3,$I$8:$K$37,2)))</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -3473,7 +3481,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1">
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
@@ -3483,7 +3491,7 @@
       <selection activeCell="Z62" sqref="Z62"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -3491,39 +3499,39 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Sheet2">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K369"/>
+  <dimension ref="A2:M371"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane ySplit="4050" topLeftCell="A347" activePane="bottomLeft"/>
-      <selection activeCell="E12" sqref="E12"/>
-      <selection pane="bottomLeft" activeCell="K362" sqref="K362"/>
+      <pane ySplit="4056" topLeftCell="A360" activePane="bottomLeft"/>
+      <selection activeCell="F3" sqref="F3:G3"/>
+      <selection pane="bottomLeft" activeCell="B366" sqref="B366"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.140625" style="30" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.140625" style="30" customWidth="1"/>
-    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="24.85546875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.109375" style="30" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.109375" style="30" customWidth="1"/>
+    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.6640625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="24.88671875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
       <c r="B2" s="56" t="s">
-        <v>42</v>
+        <v>219</v>
       </c>
       <c r="C2" s="56"/>
       <c r="D2" s="21" t="s">
@@ -3539,11 +3547,13 @@
       <c r="J2" s="57"/>
       <c r="K2" s="58"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="56"/>
+      <c r="B3" s="56" t="s">
+        <v>220</v>
+      </c>
       <c r="C3" s="56"/>
       <c r="D3" s="22" t="s">
         <v>13</v>
@@ -3557,16 +3567,20 @@
       <c r="J3" s="59"/>
       <c r="K3" s="60"/>
     </row>
-    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="56"/>
+      <c r="B4" s="56" t="s">
+        <v>221</v>
+      </c>
       <c r="C4" s="56"/>
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="61"/>
+      <c r="F4" s="61" t="s">
+        <v>222</v>
+      </c>
       <c r="G4" s="61"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
@@ -3575,7 +3589,7 @@
       <c r="J4" s="61"/>
       <c r="K4" s="62"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5" s="16"/>
       <c r="H5" s="27" t="s">
         <v>18</v>
@@ -3583,7 +3597,7 @@
       <c r="I5" s="27"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6" s="17"/>
       <c r="B6" s="8"/>
       <c r="C6" s="31"/>
@@ -3596,7 +3610,7 @@
       <c r="J6" s="8"/>
       <c r="K6" s="19"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
       <c r="C7" s="55" t="s">
@@ -3613,7 +3627,7 @@
       <c r="J7" s="55"/>
       <c r="K7" s="14"/>
     </row>
-    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -3648,7 +3662,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A9" s="23"/>
       <c r="B9" s="24" t="s">
         <v>23</v>
@@ -3657,7 +3671,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>144.26399999999998</v>
+        <v>141.76399999999998</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -3667,14 +3681,15 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>113.458</v>
+        <v>112.958</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M9" s="44"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A10" s="48" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B10" s="20"/>
       <c r="C10" s="13"/>
@@ -3694,7 +3709,7 @@
       <c r="J10" s="11"/>
       <c r="K10" s="20"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A11" s="40">
         <v>36976</v>
       </c>
@@ -3714,7 +3729,7 @@
       <c r="J11" s="11"/>
       <c r="K11" s="20"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A12" s="40">
         <v>36982</v>
       </c>
@@ -3734,7 +3749,7 @@
       <c r="J12" s="11"/>
       <c r="K12" s="20"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A13" s="40">
         <f>EDATE(A12,1)</f>
         <v>37012</v>
@@ -3755,7 +3770,7 @@
       <c r="J13" s="11"/>
       <c r="K13" s="20"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A14" s="40">
         <f t="shared" ref="A14:A18" si="0">EDATE(A13,1)</f>
         <v>37043</v>
@@ -3776,7 +3791,7 @@
       <c r="J14" s="11"/>
       <c r="K14" s="20"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A15" s="40">
         <f t="shared" si="0"/>
         <v>37073</v>
@@ -3797,7 +3812,7 @@
       <c r="J15" s="11"/>
       <c r="K15" s="20"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A16" s="40">
         <f t="shared" si="0"/>
         <v>37104</v>
@@ -3818,13 +3833,13 @@
       <c r="J16" s="12"/>
       <c r="K16" s="15"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" s="40">
         <f t="shared" si="0"/>
         <v>37135</v>
       </c>
       <c r="B17" s="20" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C17" s="13">
         <v>1.25</v>
@@ -3845,13 +3860,13 @@
         <v>45196</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" s="40">
         <f t="shared" si="0"/>
         <v>37165</v>
       </c>
       <c r="B18" s="20" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C18" s="13">
         <v>1.25</v>
@@ -3872,10 +3887,10 @@
         <v>45217</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" s="40"/>
       <c r="B19" s="20" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C19" s="13"/>
       <c r="D19" s="39">
@@ -3892,13 +3907,13 @@
       <c r="J19" s="11"/>
       <c r="K19" s="20"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" s="40">
         <f>EDATE(A18,1)</f>
         <v>37196</v>
       </c>
       <c r="B20" s="20" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C20" s="13">
         <v>1.25</v>
@@ -3919,10 +3934,10 @@
         <v>45237</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" s="40"/>
       <c r="B21" s="20" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C21" s="13"/>
       <c r="D21" s="39"/>
@@ -3941,10 +3956,10 @@
         <v>45239</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" s="40"/>
       <c r="B22" s="20" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C22" s="13"/>
       <c r="D22" s="39">
@@ -3961,13 +3976,13 @@
       <c r="J22" s="11"/>
       <c r="K22" s="20"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" s="40">
         <f>EDATE(A20,1)</f>
         <v>37226</v>
       </c>
       <c r="B23" s="20" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C23" s="13">
         <v>1.25</v>
@@ -3988,10 +4003,10 @@
         <v>45271</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" s="40"/>
       <c r="B24" s="40" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C24" s="13"/>
       <c r="D24" s="39">
@@ -4008,9 +4023,9 @@
       <c r="J24" s="11"/>
       <c r="K24" s="20"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" s="48" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B25" s="20"/>
       <c r="C25" s="13"/>
@@ -4026,12 +4041,12 @@
       <c r="J25" s="11"/>
       <c r="K25" s="20"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" s="40">
         <v>37257</v>
       </c>
       <c r="B26" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C26" s="13">
         <v>1.25</v>
@@ -4049,13 +4064,13 @@
       <c r="I26" s="9"/>
       <c r="J26" s="11"/>
       <c r="K26" s="20" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" s="40"/>
       <c r="B27" s="20" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C27" s="13"/>
       <c r="D27" s="39"/>
@@ -4074,10 +4089,10 @@
         <v>10959</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28" s="40"/>
       <c r="B28" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C28" s="13"/>
       <c r="D28" s="39">
@@ -4094,13 +4109,13 @@
       <c r="J28" s="11"/>
       <c r="K28" s="50"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" s="40">
         <f>EDATE(A26,1)</f>
         <v>37288</v>
       </c>
       <c r="B29" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C29" s="13">
         <v>1.25</v>
@@ -4119,13 +4134,13 @@
       <c r="J29" s="11"/>
       <c r="K29" s="20"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30" s="40">
         <f t="shared" ref="A30:A43" si="1">EDATE(A29,1)</f>
         <v>37316</v>
       </c>
       <c r="B30" s="20" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C30" s="13">
         <v>1.25</v>
@@ -4143,13 +4158,13 @@
       <c r="I30" s="9"/>
       <c r="J30" s="11"/>
       <c r="K30" s="20" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A31" s="40"/>
       <c r="B31" s="20" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C31" s="13"/>
       <c r="D31" s="39">
@@ -4163,13 +4178,13 @@
       <c r="J31" s="11"/>
       <c r="K31" s="20"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A32" s="40">
         <f>EDATE(A30,1)</f>
         <v>37347</v>
       </c>
       <c r="B32" s="20" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C32" s="13">
         <v>1.25</v>
@@ -4185,16 +4200,16 @@
       <c r="I32" s="9"/>
       <c r="J32" s="11"/>
       <c r="K32" s="20" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A33" s="40">
         <f t="shared" si="1"/>
         <v>37377</v>
       </c>
       <c r="B33" s="20" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C33" s="13">
         <v>1.25</v>
@@ -4212,13 +4227,13 @@
       <c r="I33" s="9"/>
       <c r="J33" s="11"/>
       <c r="K33" s="20" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A34" s="40"/>
       <c r="B34" s="20" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C34" s="13"/>
       <c r="D34" s="39">
@@ -4234,16 +4249,16 @@
       <c r="I34" s="9"/>
       <c r="J34" s="11"/>
       <c r="K34" s="20" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A35" s="40">
         <f>EDATE(A33,1)</f>
         <v>37408</v>
       </c>
       <c r="B35" s="20" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C35" s="13">
         <v>1.25</v>
@@ -4264,10 +4279,10 @@
         <v>46905</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A36" s="40"/>
       <c r="B36" s="20" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C36" s="13"/>
       <c r="D36" s="39"/>
@@ -4280,16 +4295,16 @@
       <c r="I36" s="9"/>
       <c r="J36" s="11"/>
       <c r="K36" s="20" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A37" s="40">
         <f>EDATE(A35,1)</f>
         <v>37438</v>
       </c>
       <c r="B37" s="20" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C37" s="13">
         <v>1.25</v>
@@ -4309,16 +4324,16 @@
       <c r="I37" s="9"/>
       <c r="J37" s="11"/>
       <c r="K37" s="20" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A38" s="40">
         <f t="shared" si="1"/>
         <v>37469</v>
       </c>
       <c r="B38" s="20" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C38" s="13">
         <v>1.25</v>
@@ -4338,13 +4353,13 @@
       <c r="I38" s="9"/>
       <c r="J38" s="11"/>
       <c r="K38" s="20" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A39" s="40"/>
       <c r="B39" s="20" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C39" s="13"/>
       <c r="D39" s="39">
@@ -4360,13 +4375,13 @@
         <v>41852</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A40" s="40">
         <f>EDATE(A38,1)</f>
         <v>37500</v>
       </c>
       <c r="B40" s="20" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C40" s="13">
         <v>1.25</v>
@@ -4387,10 +4402,10 @@
       <c r="J40" s="11"/>
       <c r="K40" s="20"/>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A41" s="40"/>
       <c r="B41" s="20" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C41" s="13"/>
       <c r="D41" s="39">
@@ -4408,16 +4423,16 @@
       <c r="I41" s="9"/>
       <c r="J41" s="11"/>
       <c r="K41" s="20" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A42" s="40">
         <f>EDATE(A40,1)</f>
         <v>37530</v>
       </c>
       <c r="B42" s="20" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C42" s="13">
         <v>1.25</v>
@@ -4440,7 +4455,7 @@
         <v>45566</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A43" s="40">
         <f t="shared" si="1"/>
         <v>37561</v>
@@ -4461,7 +4476,7 @@
       <c r="J43" s="11"/>
       <c r="K43" s="20"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A44" s="40">
         <f>EDATE(A43,1)</f>
         <v>37591</v>
@@ -4482,9 +4497,9 @@
       <c r="J44" s="11"/>
       <c r="K44" s="20"/>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A45" s="48" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B45" s="20"/>
       <c r="C45" s="13"/>
@@ -4500,7 +4515,7 @@
       <c r="J45" s="11"/>
       <c r="K45" s="20"/>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A46" s="40">
         <v>37622</v>
       </c>
@@ -4520,7 +4535,7 @@
       <c r="J46" s="11"/>
       <c r="K46" s="20"/>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A47" s="40">
         <f>EDATE(A46,1)</f>
         <v>37653</v>
@@ -4541,7 +4556,7 @@
       <c r="J47" s="11"/>
       <c r="K47" s="20"/>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A48" s="40">
         <f t="shared" ref="A48:A58" si="2">EDATE(A47,1)</f>
         <v>37681</v>
@@ -4562,7 +4577,7 @@
       <c r="J48" s="11"/>
       <c r="K48" s="20"/>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A49" s="40">
         <f t="shared" si="2"/>
         <v>37712</v>
@@ -4583,7 +4598,7 @@
       <c r="J49" s="11"/>
       <c r="K49" s="20"/>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A50" s="40">
         <f t="shared" si="2"/>
         <v>37742</v>
@@ -4604,13 +4619,13 @@
       <c r="J50" s="11"/>
       <c r="K50" s="20"/>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A51" s="40">
         <f t="shared" si="2"/>
         <v>37773</v>
       </c>
       <c r="B51" s="20" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C51" s="13">
         <v>1.25</v>
@@ -4629,13 +4644,13 @@
       <c r="J51" s="11"/>
       <c r="K51" s="20"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A52" s="40">
         <f t="shared" si="2"/>
         <v>37803</v>
       </c>
       <c r="B52" s="20" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C52" s="13">
         <v>1.25</v>
@@ -4654,13 +4669,13 @@
       <c r="J52" s="11"/>
       <c r="K52" s="20"/>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A53" s="40">
         <f t="shared" si="2"/>
         <v>37834</v>
       </c>
       <c r="B53" s="20" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C53" s="13">
         <v>1.25</v>
@@ -4679,13 +4694,13 @@
       <c r="J53" s="11"/>
       <c r="K53" s="20"/>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A54" s="40">
         <f t="shared" si="2"/>
         <v>37865</v>
       </c>
       <c r="B54" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C54" s="13">
         <v>1.25</v>
@@ -4703,13 +4718,13 @@
       <c r="I54" s="9"/>
       <c r="J54" s="11"/>
       <c r="K54" s="20" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A55" s="40"/>
       <c r="B55" s="20" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C55" s="13"/>
       <c r="D55" s="39">
@@ -4726,13 +4741,13 @@
       <c r="J55" s="11"/>
       <c r="K55" s="20"/>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A56" s="40">
         <f>EDATE(A54,1)</f>
         <v>37895</v>
       </c>
       <c r="B56" s="20" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C56" s="13">
         <v>1.25</v>
@@ -4751,7 +4766,7 @@
       <c r="J56" s="11"/>
       <c r="K56" s="20"/>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A57" s="40">
         <f>EDATE(A56,1)</f>
         <v>37926</v>
@@ -4772,7 +4787,7 @@
       <c r="J57" s="11"/>
       <c r="K57" s="20"/>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A58" s="40">
         <f t="shared" si="2"/>
         <v>37956</v>
@@ -4793,9 +4808,9 @@
       <c r="J58" s="11"/>
       <c r="K58" s="20"/>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A59" s="48" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B59" s="20"/>
       <c r="C59" s="13"/>
@@ -4811,7 +4826,7 @@
       <c r="J59" s="11"/>
       <c r="K59" s="20"/>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A60" s="40">
         <v>37987</v>
       </c>
@@ -4831,7 +4846,7 @@
       <c r="J60" s="11"/>
       <c r="K60" s="20"/>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A61" s="40">
         <f>EDATE(A60,1)</f>
         <v>38018</v>
@@ -4852,7 +4867,7 @@
       <c r="J61" s="11"/>
       <c r="K61" s="20"/>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A62" s="40">
         <f t="shared" ref="A62:A69" si="3">EDATE(A61,1)</f>
         <v>38047</v>
@@ -4873,7 +4888,7 @@
       <c r="J62" s="11"/>
       <c r="K62" s="20"/>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A63" s="40">
         <f t="shared" si="3"/>
         <v>38078</v>
@@ -4894,7 +4909,7 @@
       <c r="J63" s="11"/>
       <c r="K63" s="20"/>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A64" s="40">
         <f t="shared" si="3"/>
         <v>38108</v>
@@ -4915,7 +4930,7 @@
       <c r="J64" s="11"/>
       <c r="K64" s="20"/>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A65" s="40">
         <f t="shared" si="3"/>
         <v>38139</v>
@@ -4936,7 +4951,7 @@
       <c r="J65" s="11"/>
       <c r="K65" s="20"/>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A66" s="40">
         <f t="shared" si="3"/>
         <v>38169</v>
@@ -4957,7 +4972,7 @@
       <c r="J66" s="11"/>
       <c r="K66" s="20"/>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A67" s="40">
         <f t="shared" si="3"/>
         <v>38200</v>
@@ -4978,7 +4993,7 @@
       <c r="J67" s="11"/>
       <c r="K67" s="20"/>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A68" s="40">
         <f t="shared" si="3"/>
         <v>38231</v>
@@ -4999,13 +5014,13 @@
       <c r="J68" s="11"/>
       <c r="K68" s="20"/>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A69" s="40">
         <f t="shared" si="3"/>
         <v>38261</v>
       </c>
       <c r="B69" s="20" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C69" s="13">
         <v>1.25</v>
@@ -5023,13 +5038,13 @@
       <c r="I69" s="9"/>
       <c r="J69" s="11"/>
       <c r="K69" s="20" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A70" s="40"/>
       <c r="B70" s="20" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C70" s="13"/>
       <c r="D70" s="39"/>
@@ -5045,10 +5060,10 @@
         <v>43374</v>
       </c>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A71" s="40"/>
       <c r="B71" s="20" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C71" s="13"/>
       <c r="D71" s="39"/>
@@ -5064,13 +5079,13 @@
         <v>46661</v>
       </c>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A72" s="40">
         <f>EDATE(A69,1)</f>
         <v>38292</v>
       </c>
       <c r="B72" s="20" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C72" s="13">
         <v>1.25</v>
@@ -5088,16 +5103,16 @@
       <c r="I72" s="9"/>
       <c r="J72" s="11"/>
       <c r="K72" s="20" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A73" s="40">
         <f>EDATE(A72,1)</f>
         <v>38322</v>
       </c>
       <c r="B73" s="20" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C73" s="13">
         <v>1.25</v>
@@ -5115,13 +5130,13 @@
       <c r="I73" s="9"/>
       <c r="J73" s="11"/>
       <c r="K73" s="20" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A74" s="40"/>
       <c r="B74" s="20" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C74" s="13"/>
       <c r="D74" s="39">
@@ -5137,12 +5152,12 @@
       <c r="I74" s="9"/>
       <c r="J74" s="11"/>
       <c r="K74" s="20" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A75" s="48" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B75" s="20"/>
       <c r="C75" s="13"/>
@@ -5158,7 +5173,7 @@
       <c r="J75" s="11"/>
       <c r="K75" s="20"/>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A76" s="40">
         <v>38353</v>
       </c>
@@ -5178,7 +5193,7 @@
       <c r="J76" s="11"/>
       <c r="K76" s="20"/>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A77" s="40">
         <f>EDATE(A76,1)</f>
         <v>38384</v>
@@ -5199,7 +5214,7 @@
       <c r="J77" s="11"/>
       <c r="K77" s="20"/>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A78" s="40">
         <f t="shared" ref="A78:A91" si="4">EDATE(A77,1)</f>
         <v>38412</v>
@@ -5220,13 +5235,13 @@
       <c r="J78" s="11"/>
       <c r="K78" s="20"/>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A79" s="40">
         <f t="shared" si="4"/>
         <v>38443</v>
       </c>
       <c r="B79" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C79" s="13">
         <v>1.25</v>
@@ -5247,10 +5262,10 @@
         <v>42095</v>
       </c>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A80" s="40"/>
       <c r="B80" s="20" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C80" s="13"/>
       <c r="D80" s="39"/>
@@ -5264,16 +5279,16 @@
       <c r="I80" s="9"/>
       <c r="J80" s="11"/>
       <c r="K80" s="20" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A81" s="40">
         <f>EDATE(A79,1)</f>
         <v>38473</v>
       </c>
       <c r="B81" s="20" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C81" s="13">
         <v>1.25</v>
@@ -5294,10 +5309,10 @@
         <v>42491</v>
       </c>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A82" s="40"/>
       <c r="B82" s="20" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C82" s="13"/>
       <c r="D82" s="39"/>
@@ -5313,10 +5328,10 @@
       <c r="I82" s="9"/>
       <c r="J82" s="11"/>
       <c r="K82" s="20" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A83" s="40">
         <f>EDATE(A81,1)</f>
         <v>38504</v>
@@ -5337,13 +5352,13 @@
       <c r="J83" s="11"/>
       <c r="K83" s="20"/>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A84" s="40">
         <f t="shared" si="4"/>
         <v>38534</v>
       </c>
       <c r="B84" s="20" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C84" s="13">
         <v>1.25</v>
@@ -5361,13 +5376,13 @@
       <c r="I84" s="9"/>
       <c r="J84" s="11"/>
       <c r="K84" s="20" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A85" s="40"/>
       <c r="B85" s="20" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C85" s="13"/>
       <c r="D85" s="39"/>
@@ -5386,13 +5401,13 @@
         <v>45147</v>
       </c>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A86" s="40">
         <f>EDATE(A84,1)</f>
         <v>38565</v>
       </c>
       <c r="B86" s="20" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C86" s="13">
         <v>1.25</v>
@@ -5413,10 +5428,10 @@
         <v>45147</v>
       </c>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A87" s="40"/>
       <c r="B87" s="20" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C87" s="13"/>
       <c r="D87" s="39"/>
@@ -5432,16 +5447,16 @@
       <c r="I87" s="9"/>
       <c r="J87" s="11"/>
       <c r="K87" s="20" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A88" s="40">
         <f>EDATE(A86,1)</f>
         <v>38596</v>
       </c>
       <c r="B88" s="20" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C88" s="13">
         <v>1.25</v>
@@ -5459,13 +5474,13 @@
       <c r="I88" s="9"/>
       <c r="J88" s="11"/>
       <c r="K88" s="20" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A89" s="40"/>
       <c r="B89" s="20" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C89" s="13"/>
       <c r="D89" s="39"/>
@@ -5481,16 +5496,16 @@
       <c r="I89" s="9"/>
       <c r="J89" s="11"/>
       <c r="K89" s="20" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A90" s="40">
         <f>EDATE(A88,1)</f>
         <v>38626</v>
       </c>
       <c r="B90" s="20" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C90" s="13">
         <v>1.25</v>
@@ -5508,16 +5523,16 @@
       <c r="I90" s="9"/>
       <c r="J90" s="11"/>
       <c r="K90" s="20" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A91" s="40">
         <f t="shared" si="4"/>
         <v>38657</v>
       </c>
       <c r="B91" s="20" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C91" s="13">
         <v>1.25</v>
@@ -5535,13 +5550,13 @@
       <c r="I91" s="9"/>
       <c r="J91" s="11"/>
       <c r="K91" s="20" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A92" s="40"/>
       <c r="B92" s="20" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C92" s="13"/>
       <c r="D92" s="39"/>
@@ -5558,7 +5573,7 @@
       <c r="J92" s="11"/>
       <c r="K92" s="20"/>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A93" s="40">
         <f>EDATE(A91,1)</f>
         <v>38687</v>
@@ -5579,9 +5594,9 @@
       <c r="J93" s="11"/>
       <c r="K93" s="20"/>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A94" s="48" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B94" s="20"/>
       <c r="C94" s="13"/>
@@ -5597,12 +5612,12 @@
       <c r="J94" s="11"/>
       <c r="K94" s="20"/>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A95" s="40">
         <v>38718</v>
       </c>
       <c r="B95" s="20" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C95" s="13">
         <v>1.25</v>
@@ -5623,13 +5638,13 @@
         <v>44936</v>
       </c>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A96" s="40">
         <f>EDATE(A95,1)</f>
         <v>38749</v>
       </c>
       <c r="B96" s="20" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C96" s="13">
         <v>1.25</v>
@@ -5647,10 +5662,10 @@
       <c r="I96" s="9"/>
       <c r="J96" s="11"/>
       <c r="K96" s="20" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A97" s="40">
         <f t="shared" ref="A97:A107" si="5">EDATE(A96,1)</f>
         <v>38777</v>
@@ -5671,13 +5686,13 @@
       <c r="J97" s="11"/>
       <c r="K97" s="20"/>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A98" s="40">
         <f t="shared" si="5"/>
         <v>38808</v>
       </c>
       <c r="B98" s="20" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C98" s="13">
         <v>1.25</v>
@@ -5695,16 +5710,16 @@
       <c r="I98" s="9"/>
       <c r="J98" s="11"/>
       <c r="K98" s="20" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A99" s="40">
         <f>EDATE(A98,1)</f>
         <v>38838</v>
       </c>
       <c r="B99" s="20" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C99" s="13">
         <v>1.25</v>
@@ -5722,10 +5737,10 @@
       <c r="I99" s="9"/>
       <c r="J99" s="11"/>
       <c r="K99" s="20" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A100" s="40">
         <f t="shared" si="5"/>
         <v>38869</v>
@@ -5746,13 +5761,13 @@
       <c r="J100" s="11"/>
       <c r="K100" s="20"/>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A101" s="40">
         <f t="shared" si="5"/>
         <v>38899</v>
       </c>
       <c r="B101" s="20" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C101" s="13">
         <v>1.25</v>
@@ -5770,13 +5785,13 @@
       <c r="I101" s="9"/>
       <c r="J101" s="11"/>
       <c r="K101" s="20" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A102" s="40"/>
       <c r="B102" s="20" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C102" s="13"/>
       <c r="D102" s="39"/>
@@ -5792,16 +5807,16 @@
       <c r="I102" s="9"/>
       <c r="J102" s="11"/>
       <c r="K102" s="20" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A103" s="40">
         <f>EDATE(A101,1)</f>
         <v>38930</v>
       </c>
       <c r="B103" s="20" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C103" s="13">
         <v>1.25</v>
@@ -5819,13 +5834,13 @@
       <c r="I103" s="9"/>
       <c r="J103" s="11"/>
       <c r="K103" s="20" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A104" s="40"/>
       <c r="B104" s="20" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C104" s="13"/>
       <c r="D104" s="39">
@@ -5841,10 +5856,10 @@
       <c r="I104" s="9"/>
       <c r="J104" s="11"/>
       <c r="K104" s="20" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A105" s="40">
         <f>EDATE(A103,1)</f>
         <v>38961</v>
@@ -5865,7 +5880,7 @@
       <c r="J105" s="11"/>
       <c r="K105" s="20"/>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A106" s="40">
         <f t="shared" si="5"/>
         <v>38991</v>
@@ -5886,13 +5901,13 @@
       <c r="J106" s="11"/>
       <c r="K106" s="20"/>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A107" s="40">
         <f t="shared" si="5"/>
         <v>39022</v>
       </c>
       <c r="B107" s="20" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C107" s="13">
         <v>1.25</v>
@@ -5910,13 +5925,13 @@
       <c r="I107" s="9"/>
       <c r="J107" s="11"/>
       <c r="K107" s="20" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A108" s="40"/>
       <c r="B108" s="20" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C108" s="13"/>
       <c r="D108" s="39">
@@ -5929,16 +5944,16 @@
       <c r="I108" s="9"/>
       <c r="J108" s="11"/>
       <c r="K108" s="20" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A109" s="40">
         <f>EDATE(A107,1)</f>
         <v>39052</v>
       </c>
       <c r="B109" s="20" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C109" s="13">
         <v>1.25</v>
@@ -5954,12 +5969,12 @@
       <c r="I109" s="9"/>
       <c r="J109" s="11"/>
       <c r="K109" s="20" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A110" s="48" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B110" s="20"/>
       <c r="C110" s="13"/>
@@ -5975,12 +5990,12 @@
       <c r="J110" s="11"/>
       <c r="K110" s="20"/>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A111" s="40">
         <v>39083</v>
       </c>
       <c r="B111" s="20" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C111" s="13">
         <v>1.25</v>
@@ -5998,13 +6013,13 @@
       <c r="I111" s="9"/>
       <c r="J111" s="11"/>
       <c r="K111" s="20" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A112" s="40"/>
       <c r="B112" s="20" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C112" s="13"/>
       <c r="D112" s="39"/>
@@ -6017,10 +6032,10 @@
       <c r="I112" s="9"/>
       <c r="J112" s="11"/>
       <c r="K112" s="20" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A113" s="40">
         <f>EDATE(A111,1)</f>
         <v>39114</v>
@@ -6041,13 +6056,13 @@
       <c r="J113" s="11"/>
       <c r="K113" s="20"/>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A114" s="40">
         <f>EDATE(A113,1)</f>
         <v>39142</v>
       </c>
       <c r="B114" s="20" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C114" s="13">
         <v>1.25</v>
@@ -6065,13 +6080,13 @@
       <c r="I114" s="9"/>
       <c r="J114" s="11"/>
       <c r="K114" s="20" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A115" s="40"/>
       <c r="B115" s="20" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C115" s="13"/>
       <c r="D115" s="39"/>
@@ -6082,13 +6097,13 @@
       <c r="I115" s="9"/>
       <c r="J115" s="11"/>
       <c r="K115" s="20" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A116" s="40"/>
       <c r="B116" s="20" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C116" s="13"/>
       <c r="D116" s="39"/>
@@ -6101,13 +6116,13 @@
       <c r="I116" s="9"/>
       <c r="J116" s="11"/>
       <c r="K116" s="20" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A117" s="40"/>
       <c r="B117" s="20" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C117" s="13"/>
       <c r="D117" s="39"/>
@@ -6120,10 +6135,10 @@
       <c r="I117" s="9"/>
       <c r="J117" s="11"/>
       <c r="K117" s="20" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A118" s="40">
         <f>EDATE(A114,1)</f>
         <v>39173</v>
@@ -6144,13 +6159,13 @@
       <c r="J118" s="11"/>
       <c r="K118" s="20"/>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A119" s="40">
         <f t="shared" ref="A119:A122" si="6">EDATE(A118,1)</f>
         <v>39203</v>
       </c>
       <c r="B119" s="20" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C119" s="13">
         <v>1.25</v>
@@ -6168,16 +6183,16 @@
       <c r="I119" s="9"/>
       <c r="J119" s="11"/>
       <c r="K119" s="20" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A120" s="40">
         <f t="shared" si="6"/>
         <v>39234</v>
       </c>
       <c r="B120" s="20" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C120" s="13">
         <v>1.25</v>
@@ -6198,13 +6213,13 @@
         <v>45078</v>
       </c>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A121" s="40">
         <f t="shared" si="6"/>
         <v>39264</v>
       </c>
       <c r="B121" s="20" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C121" s="13">
         <v>1.25</v>
@@ -6222,16 +6237,16 @@
       <c r="I121" s="9"/>
       <c r="J121" s="11"/>
       <c r="K121" s="20" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A122" s="40">
         <f t="shared" si="6"/>
         <v>39295</v>
       </c>
       <c r="B122" s="20" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C122" s="13">
         <v>1.25</v>
@@ -6252,10 +6267,10 @@
         <v>45140</v>
       </c>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A123" s="40"/>
       <c r="B123" s="20" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C123" s="13"/>
       <c r="D123" s="39"/>
@@ -6271,16 +6286,16 @@
       <c r="I123" s="9"/>
       <c r="J123" s="11"/>
       <c r="K123" s="20" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A124" s="40">
         <f>EDATE(A122,1)</f>
         <v>39326</v>
       </c>
       <c r="B124" s="20" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C124" s="13">
         <v>1.25</v>
@@ -6298,13 +6313,13 @@
       <c r="I124" s="9"/>
       <c r="J124" s="11"/>
       <c r="K124" s="51" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A125" s="40"/>
       <c r="B125" s="20" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C125" s="13"/>
       <c r="D125" s="39"/>
@@ -6320,10 +6335,10 @@
         <v>45179</v>
       </c>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A126" s="40"/>
       <c r="B126" s="20" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C126" s="13"/>
       <c r="D126" s="39">
@@ -6336,13 +6351,13 @@
       <c r="I126" s="9"/>
       <c r="J126" s="11"/>
       <c r="K126" s="20" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A127" s="40"/>
       <c r="B127" s="20" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C127" s="13"/>
       <c r="D127" s="39">
@@ -6355,16 +6370,16 @@
       <c r="I127" s="9"/>
       <c r="J127" s="11"/>
       <c r="K127" s="20" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A128" s="40">
         <f>EDATE(A124,1)</f>
         <v>39356</v>
       </c>
       <c r="B128" s="20" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C128" s="13">
         <v>1.25</v>
@@ -6380,13 +6395,13 @@
       <c r="I128" s="9"/>
       <c r="J128" s="11"/>
       <c r="K128" s="20" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A129" s="40"/>
       <c r="B129" s="20" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C129" s="13"/>
       <c r="D129" s="39">
@@ -6405,13 +6420,13 @@
         <v>45237</v>
       </c>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A130" s="40">
         <f>EDATE(A128,1)</f>
         <v>39387</v>
       </c>
       <c r="B130" s="20" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C130" s="13">
         <v>1.25</v>
@@ -6429,13 +6444,13 @@
       <c r="I130" s="9"/>
       <c r="J130" s="11"/>
       <c r="K130" s="11" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A131" s="40"/>
       <c r="B131" s="20" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C131" s="13"/>
       <c r="D131" s="39"/>
@@ -6450,13 +6465,13 @@
         <v>0.25</v>
       </c>
       <c r="K131" s="52" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="132" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A132" s="40"/>
       <c r="B132" s="20" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C132" s="13"/>
       <c r="D132" s="39">
@@ -6469,13 +6484,13 @@
       <c r="I132" s="9"/>
       <c r="J132" s="11"/>
       <c r="K132" s="53" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="133" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A133" s="40"/>
       <c r="B133" s="20" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C133" s="13"/>
       <c r="D133" s="39">
@@ -6488,10 +6503,10 @@
       <c r="I133" s="9"/>
       <c r="J133" s="11"/>
       <c r="K133" s="11" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="134" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A134" s="40">
         <f>EDATE(A130,1)</f>
         <v>39417</v>
@@ -6512,9 +6527,9 @@
       <c r="J134" s="11"/>
       <c r="K134" s="20"/>
     </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A135" s="48" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B135" s="20"/>
       <c r="C135" s="13"/>
@@ -6530,7 +6545,7 @@
       <c r="J135" s="11"/>
       <c r="K135" s="20"/>
     </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A136" s="40">
         <v>39448</v>
       </c>
@@ -6550,7 +6565,7 @@
       <c r="J136" s="11"/>
       <c r="K136" s="20"/>
     </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A137" s="40">
         <f>EDATE(A136,1)</f>
         <v>39479</v>
@@ -6571,13 +6586,13 @@
       <c r="J137" s="11"/>
       <c r="K137" s="20"/>
     </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A138" s="40">
         <f t="shared" ref="A138:A148" si="7">EDATE(A137,1)</f>
         <v>39508</v>
       </c>
       <c r="B138" s="20" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C138" s="13">
         <v>1.25</v>
@@ -6593,16 +6608,16 @@
       <c r="I138" s="9"/>
       <c r="J138" s="11"/>
       <c r="K138" s="20" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="139" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A139" s="40">
         <f t="shared" si="7"/>
         <v>39539</v>
       </c>
       <c r="B139" s="20" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C139" s="13">
         <v>1.25</v>
@@ -6620,10 +6635,10 @@
       <c r="I139" s="9"/>
       <c r="J139" s="11"/>
       <c r="K139" s="20" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="140" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A140" s="40">
         <f t="shared" si="7"/>
         <v>39569</v>
@@ -6644,7 +6659,7 @@
       <c r="J140" s="11"/>
       <c r="K140" s="20"/>
     </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A141" s="40">
         <f t="shared" si="7"/>
         <v>39600</v>
@@ -6665,13 +6680,13 @@
       <c r="J141" s="11"/>
       <c r="K141" s="20"/>
     </row>
-    <row r="142" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A142" s="40">
         <f>EDATE(A141,1)</f>
         <v>39630</v>
       </c>
       <c r="B142" s="20" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C142" s="13">
         <v>1.25</v>
@@ -6689,13 +6704,13 @@
       <c r="I142" s="9"/>
       <c r="J142" s="11"/>
       <c r="K142" s="20" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="143" spans="1:11" x14ac:dyDescent="0.25">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="143" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A143" s="40"/>
       <c r="B143" s="20" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C143" s="13"/>
       <c r="D143" s="39"/>
@@ -6711,10 +6726,10 @@
       <c r="I143" s="9"/>
       <c r="J143" s="11"/>
       <c r="K143" s="20" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="144" spans="1:11" x14ac:dyDescent="0.25">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="144" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A144" s="40">
         <f>EDATE(A142,1)</f>
         <v>39661</v>
@@ -6735,13 +6750,13 @@
       <c r="J144" s="11"/>
       <c r="K144" s="20"/>
     </row>
-    <row r="145" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A145" s="40">
         <f t="shared" si="7"/>
         <v>39692</v>
       </c>
       <c r="B145" s="20" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C145" s="13">
         <v>1.25</v>
@@ -6759,10 +6774,10 @@
       <c r="I145" s="9"/>
       <c r="J145" s="11"/>
       <c r="K145" s="20" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="146" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A146" s="40">
         <f t="shared" si="7"/>
         <v>39722</v>
@@ -6783,7 +6798,7 @@
       <c r="J146" s="11"/>
       <c r="K146" s="20"/>
     </row>
-    <row r="147" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A147" s="40">
         <f t="shared" si="7"/>
         <v>39753</v>
@@ -6804,7 +6819,7 @@
       <c r="J147" s="11"/>
       <c r="K147" s="20"/>
     </row>
-    <row r="148" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A148" s="40">
         <f t="shared" si="7"/>
         <v>39783</v>
@@ -6825,9 +6840,9 @@
       <c r="J148" s="11"/>
       <c r="K148" s="20"/>
     </row>
-    <row r="149" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A149" s="48" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B149" s="20"/>
       <c r="C149" s="13"/>
@@ -6843,7 +6858,7 @@
       <c r="J149" s="11"/>
       <c r="K149" s="20"/>
     </row>
-    <row r="150" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A150" s="40">
         <v>39814</v>
       </c>
@@ -6863,13 +6878,13 @@
       <c r="J150" s="11"/>
       <c r="K150" s="20"/>
     </row>
-    <row r="151" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A151" s="40">
         <f>EDATE(A150,1)</f>
         <v>39845</v>
       </c>
       <c r="B151" s="20" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C151" s="13">
         <v>1.25</v>
@@ -6887,16 +6902,16 @@
       <c r="I151" s="9"/>
       <c r="J151" s="11"/>
       <c r="K151" s="20" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="152" spans="1:11" x14ac:dyDescent="0.25">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="152" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A152" s="40">
         <f t="shared" ref="A152:A160" si="8">EDATE(A151,1)</f>
         <v>39873</v>
       </c>
       <c r="B152" s="20" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C152" s="13">
         <v>1.25</v>
@@ -6914,16 +6929,16 @@
       <c r="I152" s="9"/>
       <c r="J152" s="11"/>
       <c r="K152" s="20" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="153" spans="1:11" x14ac:dyDescent="0.25">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="153" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A153" s="40">
         <f t="shared" si="8"/>
         <v>39904</v>
       </c>
       <c r="B153" s="20" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C153" s="13">
         <v>1.25</v>
@@ -6941,16 +6956,16 @@
       <c r="I153" s="9"/>
       <c r="J153" s="11"/>
       <c r="K153" s="20" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="154" spans="1:11" x14ac:dyDescent="0.25">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="154" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A154" s="40">
         <f t="shared" si="8"/>
         <v>39934</v>
       </c>
       <c r="B154" s="20" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C154" s="13">
         <v>1.25</v>
@@ -6971,7 +6986,7 @@
         <v>45064</v>
       </c>
     </row>
-    <row r="155" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A155" s="40">
         <f t="shared" si="8"/>
         <v>39965</v>
@@ -6992,7 +7007,7 @@
       <c r="J155" s="11"/>
       <c r="K155" s="20"/>
     </row>
-    <row r="156" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A156" s="40">
         <f t="shared" si="8"/>
         <v>39995</v>
@@ -7013,7 +7028,7 @@
       <c r="J156" s="11"/>
       <c r="K156" s="20"/>
     </row>
-    <row r="157" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A157" s="40">
         <f t="shared" si="8"/>
         <v>40026</v>
@@ -7034,7 +7049,7 @@
       <c r="J157" s="11"/>
       <c r="K157" s="20"/>
     </row>
-    <row r="158" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A158" s="40">
         <f t="shared" si="8"/>
         <v>40057</v>
@@ -7055,7 +7070,7 @@
       <c r="J158" s="11"/>
       <c r="K158" s="20"/>
     </row>
-    <row r="159" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A159" s="40">
         <f t="shared" si="8"/>
         <v>40087</v>
@@ -7076,7 +7091,7 @@
       <c r="J159" s="11"/>
       <c r="K159" s="20"/>
     </row>
-    <row r="160" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A160" s="40">
         <f t="shared" si="8"/>
         <v>40118</v>
@@ -7097,13 +7112,13 @@
       <c r="J160" s="11"/>
       <c r="K160" s="20"/>
     </row>
-    <row r="161" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A161" s="40">
         <f>EDATE(A160,1)</f>
         <v>40148</v>
       </c>
       <c r="B161" s="20" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C161" s="13">
         <v>1.25</v>
@@ -7121,13 +7136,13 @@
       <c r="I161" s="9"/>
       <c r="J161" s="11"/>
       <c r="K161" s="20" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="162" spans="1:11" x14ac:dyDescent="0.25">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="162" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A162" s="40"/>
       <c r="B162" s="20" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C162" s="13"/>
       <c r="D162" s="39"/>
@@ -7143,12 +7158,12 @@
       <c r="I162" s="9"/>
       <c r="J162" s="11"/>
       <c r="K162" s="20" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="163" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A163" s="48" t="s">
         <v>139</v>
-      </c>
-    </row>
-    <row r="163" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A163" s="48" t="s">
-        <v>140</v>
       </c>
       <c r="B163" s="20"/>
       <c r="C163" s="13"/>
@@ -7164,7 +7179,7 @@
       <c r="J163" s="11"/>
       <c r="K163" s="20"/>
     </row>
-    <row r="164" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A164" s="40">
         <v>40179</v>
       </c>
@@ -7184,7 +7199,7 @@
       <c r="J164" s="11"/>
       <c r="K164" s="20"/>
     </row>
-    <row r="165" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A165" s="40">
         <f>EDATE(A164,1)</f>
         <v>40210</v>
@@ -7205,7 +7220,7 @@
       <c r="J165" s="11"/>
       <c r="K165" s="20"/>
     </row>
-    <row r="166" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A166" s="40">
         <f t="shared" ref="A166:A175" si="9">EDATE(A165,1)</f>
         <v>40238</v>
@@ -7226,7 +7241,7 @@
       <c r="J166" s="12"/>
       <c r="K166" s="15"/>
     </row>
-    <row r="167" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A167" s="40">
         <f t="shared" si="9"/>
         <v>40269</v>
@@ -7247,7 +7262,7 @@
       <c r="J167" s="11"/>
       <c r="K167" s="20"/>
     </row>
-    <row r="168" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A168" s="40">
         <f t="shared" si="9"/>
         <v>40299</v>
@@ -7268,7 +7283,7 @@
       <c r="J168" s="11"/>
       <c r="K168" s="20"/>
     </row>
-    <row r="169" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A169" s="40">
         <f t="shared" si="9"/>
         <v>40330</v>
@@ -7289,7 +7304,7 @@
       <c r="J169" s="11"/>
       <c r="K169" s="20"/>
     </row>
-    <row r="170" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A170" s="40">
         <f t="shared" si="9"/>
         <v>40360</v>
@@ -7310,7 +7325,7 @@
       <c r="J170" s="11"/>
       <c r="K170" s="20"/>
     </row>
-    <row r="171" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A171" s="40">
         <f t="shared" si="9"/>
         <v>40391</v>
@@ -7331,7 +7346,7 @@
       <c r="J171" s="11"/>
       <c r="K171" s="20"/>
     </row>
-    <row r="172" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A172" s="40">
         <f t="shared" si="9"/>
         <v>40422</v>
@@ -7352,7 +7367,7 @@
       <c r="J172" s="11"/>
       <c r="K172" s="20"/>
     </row>
-    <row r="173" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A173" s="40">
         <f>EDATE(A172,1)</f>
         <v>40452</v>
@@ -7373,7 +7388,7 @@
       <c r="J173" s="11"/>
       <c r="K173" s="20"/>
     </row>
-    <row r="174" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A174" s="40">
         <f t="shared" si="9"/>
         <v>40483</v>
@@ -7394,13 +7409,13 @@
       <c r="J174" s="11"/>
       <c r="K174" s="20"/>
     </row>
-    <row r="175" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A175" s="40">
         <f t="shared" si="9"/>
         <v>40513</v>
       </c>
       <c r="B175" s="20" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C175" s="13">
         <v>1.25</v>
@@ -7416,13 +7431,13 @@
       <c r="I175" s="9"/>
       <c r="J175" s="11"/>
       <c r="K175" s="20" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="176" spans="1:11" x14ac:dyDescent="0.25">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="176" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A176" s="40"/>
       <c r="B176" s="20" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C176" s="13"/>
       <c r="D176" s="39">
@@ -7439,9 +7454,9 @@
       <c r="J176" s="11"/>
       <c r="K176" s="20"/>
     </row>
-    <row r="177" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A177" s="48" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B177" s="20"/>
       <c r="C177" s="13"/>
@@ -7457,7 +7472,7 @@
       <c r="J177" s="11"/>
       <c r="K177" s="20"/>
     </row>
-    <row r="178" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A178" s="40">
         <v>40544</v>
       </c>
@@ -7477,7 +7492,7 @@
       <c r="J178" s="11"/>
       <c r="K178" s="20"/>
     </row>
-    <row r="179" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A179" s="40">
         <f>EDATE(A178,1)</f>
         <v>40575</v>
@@ -7498,7 +7513,7 @@
       <c r="J179" s="11"/>
       <c r="K179" s="20"/>
     </row>
-    <row r="180" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A180" s="40">
         <f t="shared" ref="A180:A189" si="10">EDATE(A179,1)</f>
         <v>40603</v>
@@ -7519,13 +7534,13 @@
       <c r="J180" s="11"/>
       <c r="K180" s="20"/>
     </row>
-    <row r="181" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A181" s="40">
         <f t="shared" si="10"/>
         <v>40634</v>
       </c>
       <c r="B181" s="20" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C181" s="13">
         <v>1.25</v>
@@ -7543,10 +7558,10 @@
       <c r="I181" s="9"/>
       <c r="J181" s="11"/>
       <c r="K181" s="20" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="182" spans="1:11" x14ac:dyDescent="0.25">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="182" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A182" s="40">
         <f t="shared" si="10"/>
         <v>40664</v>
@@ -7567,7 +7582,7 @@
       <c r="J182" s="11"/>
       <c r="K182" s="20"/>
     </row>
-    <row r="183" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A183" s="40">
         <f t="shared" si="10"/>
         <v>40695</v>
@@ -7588,13 +7603,13 @@
       <c r="J183" s="11"/>
       <c r="K183" s="20"/>
     </row>
-    <row r="184" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A184" s="40">
         <f t="shared" si="10"/>
         <v>40725</v>
       </c>
       <c r="B184" s="20" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C184" s="13">
         <v>1.25</v>
@@ -7612,10 +7627,10 @@
       <c r="I184" s="9"/>
       <c r="J184" s="11"/>
       <c r="K184" s="20" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="185" spans="1:11" x14ac:dyDescent="0.25">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="185" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A185" s="40">
         <f t="shared" si="10"/>
         <v>40756</v>
@@ -7636,7 +7651,7 @@
       <c r="J185" s="11"/>
       <c r="K185" s="20"/>
     </row>
-    <row r="186" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A186" s="40">
         <f t="shared" si="10"/>
         <v>40787</v>
@@ -7657,7 +7672,7 @@
       <c r="J186" s="11"/>
       <c r="K186" s="20"/>
     </row>
-    <row r="187" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A187" s="40">
         <f>EDATE(A186,1)</f>
         <v>40817</v>
@@ -7678,7 +7693,7 @@
       <c r="J187" s="11"/>
       <c r="K187" s="20"/>
     </row>
-    <row r="188" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A188" s="40">
         <f t="shared" si="10"/>
         <v>40848</v>
@@ -7699,13 +7714,13 @@
       <c r="J188" s="11"/>
       <c r="K188" s="20"/>
     </row>
-    <row r="189" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A189" s="40">
         <f t="shared" si="10"/>
         <v>40878</v>
       </c>
       <c r="B189" s="20" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C189" s="13">
         <v>1.25</v>
@@ -7726,10 +7741,10 @@
         <v>42705</v>
       </c>
     </row>
-    <row r="190" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A190" s="40"/>
       <c r="B190" s="20" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C190" s="13"/>
       <c r="D190" s="39">
@@ -7746,9 +7761,9 @@
       <c r="J190" s="11"/>
       <c r="K190" s="20"/>
     </row>
-    <row r="191" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A191" s="48" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B191" s="20"/>
       <c r="C191" s="13"/>
@@ -7764,7 +7779,7 @@
       <c r="J191" s="11"/>
       <c r="K191" s="20"/>
     </row>
-    <row r="192" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A192" s="40">
         <v>40909</v>
       </c>
@@ -7784,7 +7799,7 @@
       <c r="J192" s="11"/>
       <c r="K192" s="20"/>
     </row>
-    <row r="193" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A193" s="40">
         <f>EDATE(A192,1)</f>
         <v>40940</v>
@@ -7805,7 +7820,7 @@
       <c r="J193" s="11"/>
       <c r="K193" s="20"/>
     </row>
-    <row r="194" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A194" s="40">
         <f t="shared" ref="A194:A203" si="11">EDATE(A193,1)</f>
         <v>40969</v>
@@ -7826,7 +7841,7 @@
       <c r="J194" s="11"/>
       <c r="K194" s="20"/>
     </row>
-    <row r="195" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A195" s="40">
         <f t="shared" si="11"/>
         <v>41000</v>
@@ -7847,7 +7862,7 @@
       <c r="J195" s="11"/>
       <c r="K195" s="20"/>
     </row>
-    <row r="196" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A196" s="40">
         <f t="shared" si="11"/>
         <v>41030</v>
@@ -7868,7 +7883,7 @@
       <c r="J196" s="11"/>
       <c r="K196" s="20"/>
     </row>
-    <row r="197" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A197" s="40">
         <f t="shared" si="11"/>
         <v>41061</v>
@@ -7889,7 +7904,7 @@
       <c r="J197" s="11"/>
       <c r="K197" s="20"/>
     </row>
-    <row r="198" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A198" s="40">
         <f t="shared" si="11"/>
         <v>41091</v>
@@ -7910,7 +7925,7 @@
       <c r="J198" s="11"/>
       <c r="K198" s="20"/>
     </row>
-    <row r="199" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A199" s="40">
         <f t="shared" si="11"/>
         <v>41122</v>
@@ -7931,13 +7946,13 @@
       <c r="J199" s="11"/>
       <c r="K199" s="20"/>
     </row>
-    <row r="200" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A200" s="40">
         <f t="shared" si="11"/>
         <v>41153</v>
       </c>
       <c r="B200" s="20" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C200" s="13">
         <v>1.25</v>
@@ -7955,10 +7970,10 @@
       <c r="I200" s="9"/>
       <c r="J200" s="11"/>
       <c r="K200" s="20" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="201" spans="1:11" x14ac:dyDescent="0.25">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="201" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A201" s="40">
         <f t="shared" si="11"/>
         <v>41183</v>
@@ -7979,13 +7994,13 @@
       <c r="J201" s="11"/>
       <c r="K201" s="20"/>
     </row>
-    <row r="202" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A202" s="40">
         <f>EDATE(A201,1)</f>
         <v>41214</v>
       </c>
       <c r="B202" s="20" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C202" s="13">
         <v>1.25</v>
@@ -8003,10 +8018,10 @@
       <c r="I202" s="9"/>
       <c r="J202" s="11"/>
       <c r="K202" s="20" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="203" spans="1:11" x14ac:dyDescent="0.25">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="203" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A203" s="40">
         <f t="shared" si="11"/>
         <v>41244</v>
@@ -8027,9 +8042,9 @@
       <c r="J203" s="11"/>
       <c r="K203" s="20"/>
     </row>
-    <row r="204" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A204" s="48" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B204" s="20"/>
       <c r="C204" s="13"/>
@@ -8045,12 +8060,12 @@
       <c r="J204" s="11"/>
       <c r="K204" s="20"/>
     </row>
-    <row r="205" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A205" s="40">
         <v>41275</v>
       </c>
       <c r="B205" s="20" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C205" s="13">
         <v>1.25</v>
@@ -8068,10 +8083,10 @@
       <c r="I205" s="9"/>
       <c r="J205" s="11"/>
       <c r="K205" s="20" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="206" spans="1:11" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="206" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A206" s="40">
         <f>EDATE(A205,1)</f>
         <v>41306</v>
@@ -8092,13 +8107,13 @@
       <c r="J206" s="11"/>
       <c r="K206" s="20"/>
     </row>
-    <row r="207" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A207" s="40">
         <f t="shared" ref="A207:A215" si="12">EDATE(A206,1)</f>
         <v>41334</v>
       </c>
       <c r="B207" s="20" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C207" s="13">
         <v>1.25</v>
@@ -8119,7 +8134,7 @@
         <v>44256</v>
       </c>
     </row>
-    <row r="208" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A208" s="40">
         <f t="shared" si="12"/>
         <v>41365</v>
@@ -8140,13 +8155,13 @@
       <c r="J208" s="11"/>
       <c r="K208" s="20"/>
     </row>
-    <row r="209" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A209" s="40">
         <f t="shared" si="12"/>
         <v>41395</v>
       </c>
       <c r="B209" s="20" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C209" s="13">
         <v>1.25</v>
@@ -8164,10 +8179,10 @@
       <c r="I209" s="9"/>
       <c r="J209" s="11"/>
       <c r="K209" s="20" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="210" spans="1:11" x14ac:dyDescent="0.25">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="210" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A210" s="40">
         <f t="shared" si="12"/>
         <v>41426</v>
@@ -8188,7 +8203,7 @@
       <c r="J210" s="11"/>
       <c r="K210" s="20"/>
     </row>
-    <row r="211" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A211" s="40">
         <f t="shared" si="12"/>
         <v>41456</v>
@@ -8209,7 +8224,7 @@
       <c r="J211" s="11"/>
       <c r="K211" s="20"/>
     </row>
-    <row r="212" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A212" s="40">
         <f t="shared" si="12"/>
         <v>41487</v>
@@ -8230,7 +8245,7 @@
       <c r="J212" s="11"/>
       <c r="K212" s="20"/>
     </row>
-    <row r="213" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A213" s="40">
         <f t="shared" si="12"/>
         <v>41518</v>
@@ -8251,7 +8266,7 @@
       <c r="J213" s="11"/>
       <c r="K213" s="20"/>
     </row>
-    <row r="214" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A214" s="40">
         <f t="shared" si="12"/>
         <v>41548</v>
@@ -8272,7 +8287,7 @@
       <c r="J214" s="11"/>
       <c r="K214" s="20"/>
     </row>
-    <row r="215" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A215" s="40">
         <f t="shared" si="12"/>
         <v>41579</v>
@@ -8293,7 +8308,7 @@
       <c r="J215" s="11"/>
       <c r="K215" s="20"/>
     </row>
-    <row r="216" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A216" s="40">
         <f>EDATE(A215,1)</f>
         <v>41609</v>
@@ -8314,9 +8329,9 @@
       <c r="J216" s="11"/>
       <c r="K216" s="20"/>
     </row>
-    <row r="217" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A217" s="48" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B217" s="20"/>
       <c r="C217" s="13"/>
@@ -8332,7 +8347,7 @@
       <c r="J217" s="11"/>
       <c r="K217" s="20"/>
     </row>
-    <row r="218" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A218" s="40">
         <v>41640</v>
       </c>
@@ -8352,7 +8367,7 @@
       <c r="J218" s="11"/>
       <c r="K218" s="20"/>
     </row>
-    <row r="219" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A219" s="40">
         <f>EDATE(A218,1)</f>
         <v>41671</v>
@@ -8373,7 +8388,7 @@
       <c r="J219" s="11"/>
       <c r="K219" s="20"/>
     </row>
-    <row r="220" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A220" s="40">
         <f t="shared" ref="A220:A229" si="13">EDATE(A219,1)</f>
         <v>41699</v>
@@ -8394,7 +8409,7 @@
       <c r="J220" s="11"/>
       <c r="K220" s="20"/>
     </row>
-    <row r="221" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A221" s="40">
         <f t="shared" si="13"/>
         <v>41730</v>
@@ -8415,7 +8430,7 @@
       <c r="J221" s="11"/>
       <c r="K221" s="20"/>
     </row>
-    <row r="222" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A222" s="40">
         <f t="shared" si="13"/>
         <v>41760</v>
@@ -8436,7 +8451,7 @@
       <c r="J222" s="11"/>
       <c r="K222" s="20"/>
     </row>
-    <row r="223" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A223" s="40">
         <f t="shared" si="13"/>
         <v>41791</v>
@@ -8457,7 +8472,7 @@
       <c r="J223" s="11"/>
       <c r="K223" s="20"/>
     </row>
-    <row r="224" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A224" s="40">
         <f t="shared" si="13"/>
         <v>41821</v>
@@ -8478,7 +8493,7 @@
       <c r="J224" s="11"/>
       <c r="K224" s="20"/>
     </row>
-    <row r="225" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A225" s="40">
         <f t="shared" si="13"/>
         <v>41852</v>
@@ -8499,7 +8514,7 @@
       <c r="J225" s="11"/>
       <c r="K225" s="20"/>
     </row>
-    <row r="226" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A226" s="40">
         <f t="shared" si="13"/>
         <v>41883</v>
@@ -8520,7 +8535,7 @@
       <c r="J226" s="11"/>
       <c r="K226" s="20"/>
     </row>
-    <row r="227" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A227" s="40">
         <f t="shared" si="13"/>
         <v>41913</v>
@@ -8541,13 +8556,13 @@
       <c r="J227" s="11"/>
       <c r="K227" s="20"/>
     </row>
-    <row r="228" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A228" s="40">
         <f t="shared" si="13"/>
         <v>41944</v>
       </c>
       <c r="B228" s="20" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C228" s="13">
         <v>1.25</v>
@@ -8565,16 +8580,16 @@
       <c r="I228" s="9"/>
       <c r="J228" s="11"/>
       <c r="K228" s="20" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="229" spans="1:11" x14ac:dyDescent="0.25">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="229" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A229" s="40">
         <f t="shared" si="13"/>
         <v>41974</v>
       </c>
       <c r="B229" s="20" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C229" s="13">
         <v>1.25</v>
@@ -8593,9 +8608,9 @@
       <c r="J229" s="11"/>
       <c r="K229" s="20"/>
     </row>
-    <row r="230" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A230" s="48" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B230" s="20"/>
       <c r="C230" s="13"/>
@@ -8611,12 +8626,12 @@
       <c r="J230" s="11"/>
       <c r="K230" s="20"/>
     </row>
-    <row r="231" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A231" s="40">
         <v>42005</v>
       </c>
       <c r="B231" s="20" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C231" s="13">
         <v>1.25</v>
@@ -8637,7 +8652,7 @@
         <v>44945</v>
       </c>
     </row>
-    <row r="232" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A232" s="40">
         <f>EDATE(A231,1)</f>
         <v>42036</v>
@@ -8658,13 +8673,13 @@
       <c r="J232" s="11"/>
       <c r="K232" s="20"/>
     </row>
-    <row r="233" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A233" s="40">
         <f t="shared" ref="A233:A242" si="14">EDATE(A232,1)</f>
         <v>42064</v>
       </c>
       <c r="B233" s="20" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C233" s="13">
         <v>1.25</v>
@@ -8680,13 +8695,13 @@
       <c r="I233" s="9"/>
       <c r="J233" s="11"/>
       <c r="K233" s="20" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="234" spans="1:11" x14ac:dyDescent="0.25">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="234" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A234" s="40"/>
       <c r="B234" s="20" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C234" s="13"/>
       <c r="D234" s="39"/>
@@ -8705,7 +8720,7 @@
         <v>44995</v>
       </c>
     </row>
-    <row r="235" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A235" s="40">
         <f>EDATE(A233,1)</f>
         <v>42095</v>
@@ -8726,7 +8741,7 @@
       <c r="J235" s="11"/>
       <c r="K235" s="20"/>
     </row>
-    <row r="236" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A236" s="40">
         <f t="shared" si="14"/>
         <v>42125</v>
@@ -8747,7 +8762,7 @@
       <c r="J236" s="11"/>
       <c r="K236" s="20"/>
     </row>
-    <row r="237" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A237" s="40">
         <f t="shared" si="14"/>
         <v>42156</v>
@@ -8768,7 +8783,7 @@
       <c r="J237" s="11"/>
       <c r="K237" s="20"/>
     </row>
-    <row r="238" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A238" s="40">
         <f t="shared" si="14"/>
         <v>42186</v>
@@ -8789,7 +8804,7 @@
       <c r="J238" s="11"/>
       <c r="K238" s="20"/>
     </row>
-    <row r="239" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A239" s="40">
         <f t="shared" si="14"/>
         <v>42217</v>
@@ -8810,7 +8825,7 @@
       <c r="J239" s="11"/>
       <c r="K239" s="20"/>
     </row>
-    <row r="240" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A240" s="40">
         <f t="shared" si="14"/>
         <v>42248</v>
@@ -8831,7 +8846,7 @@
       <c r="J240" s="11"/>
       <c r="K240" s="20"/>
     </row>
-    <row r="241" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A241" s="40">
         <f t="shared" si="14"/>
         <v>42278</v>
@@ -8852,7 +8867,7 @@
       <c r="J241" s="11"/>
       <c r="K241" s="20"/>
     </row>
-    <row r="242" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A242" s="40">
         <f t="shared" si="14"/>
         <v>42309</v>
@@ -8873,13 +8888,13 @@
       <c r="J242" s="11"/>
       <c r="K242" s="20"/>
     </row>
-    <row r="243" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A243" s="40">
         <f>EDATE(A242,1)</f>
         <v>42339</v>
       </c>
       <c r="B243" s="20" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C243" s="13">
         <v>1.25</v>
@@ -8897,12 +8912,12 @@
       <c r="I243" s="9"/>
       <c r="J243" s="11"/>
       <c r="K243" s="20" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="244" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A244" s="48" t="s">
         <v>158</v>
-      </c>
-    </row>
-    <row r="244" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A244" s="48" t="s">
-        <v>159</v>
       </c>
       <c r="B244" s="20"/>
       <c r="C244" s="13"/>
@@ -8918,7 +8933,7 @@
       <c r="J244" s="11"/>
       <c r="K244" s="20"/>
     </row>
-    <row r="245" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A245" s="40">
         <v>42370</v>
       </c>
@@ -8938,13 +8953,13 @@
       <c r="J245" s="11"/>
       <c r="K245" s="20"/>
     </row>
-    <row r="246" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A246" s="40">
         <f>EDATE(A245,1)</f>
         <v>42401</v>
       </c>
       <c r="B246" s="20" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C246" s="13">
         <v>1.25</v>
@@ -8962,10 +8977,10 @@
       <c r="I246" s="9"/>
       <c r="J246" s="11"/>
       <c r="K246" s="20" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="247" spans="1:11" x14ac:dyDescent="0.25">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="247" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A247" s="40">
         <f t="shared" ref="A247:A258" si="15">EDATE(A246,1)</f>
         <v>42430</v>
@@ -8986,13 +9001,13 @@
       <c r="J247" s="11"/>
       <c r="K247" s="20"/>
     </row>
-    <row r="248" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A248" s="40">
         <f t="shared" si="15"/>
         <v>42461</v>
       </c>
       <c r="B248" s="20" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C248" s="13">
         <v>1.25</v>
@@ -9008,16 +9023,16 @@
       <c r="I248" s="9"/>
       <c r="J248" s="11"/>
       <c r="K248" s="20" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="249" spans="1:11" x14ac:dyDescent="0.25">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="249" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A249" s="40">
         <f t="shared" si="15"/>
         <v>42491</v>
       </c>
       <c r="B249" s="20" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C249" s="13">
         <v>1.25</v>
@@ -9038,7 +9053,7 @@
         <v>42491</v>
       </c>
     </row>
-    <row r="250" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A250" s="40">
         <f t="shared" si="15"/>
         <v>42522</v>
@@ -9059,7 +9074,7 @@
       <c r="J250" s="11"/>
       <c r="K250" s="20"/>
     </row>
-    <row r="251" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A251" s="40">
         <f t="shared" si="15"/>
         <v>42552</v>
@@ -9080,13 +9095,13 @@
       <c r="J251" s="11"/>
       <c r="K251" s="20"/>
     </row>
-    <row r="252" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A252" s="40">
         <f t="shared" si="15"/>
         <v>42583</v>
       </c>
       <c r="B252" s="20" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C252" s="13">
         <v>1.25</v>
@@ -9104,13 +9119,13 @@
       <c r="I252" s="9"/>
       <c r="J252" s="11"/>
       <c r="K252" s="20" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="253" spans="1:11" x14ac:dyDescent="0.25">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="253" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A253" s="40"/>
       <c r="B253" s="20" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C253" s="13"/>
       <c r="D253" s="39"/>
@@ -9129,13 +9144,13 @@
         <v>43313</v>
       </c>
     </row>
-    <row r="254" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A254" s="40">
         <f>EDATE(A252,1)</f>
         <v>42614</v>
       </c>
       <c r="B254" s="20" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C254" s="13">
         <v>1.25</v>
@@ -9153,13 +9168,13 @@
       <c r="I254" s="9"/>
       <c r="J254" s="11"/>
       <c r="K254" s="20" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="255" spans="1:11" x14ac:dyDescent="0.25">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="255" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A255" s="40"/>
       <c r="B255" s="20" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C255" s="13"/>
       <c r="D255" s="39"/>
@@ -9175,10 +9190,10 @@
       <c r="I255" s="9"/>
       <c r="J255" s="11"/>
       <c r="K255" s="20" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="256" spans="1:11" x14ac:dyDescent="0.25">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="256" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A256" s="40">
         <f>EDATE(A254,1)</f>
         <v>42644</v>
@@ -9199,7 +9214,7 @@
       <c r="J256" s="11"/>
       <c r="K256" s="20"/>
     </row>
-    <row r="257" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A257" s="40">
         <f t="shared" si="15"/>
         <v>42675</v>
@@ -9220,13 +9235,13 @@
       <c r="J257" s="11"/>
       <c r="K257" s="20"/>
     </row>
-    <row r="258" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A258" s="40">
         <f t="shared" si="15"/>
         <v>42705</v>
       </c>
       <c r="B258" s="20" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C258" s="13">
         <v>1.25</v>
@@ -9244,13 +9259,13 @@
       <c r="I258" s="9"/>
       <c r="J258" s="11"/>
       <c r="K258" s="20" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="259" spans="1:11" x14ac:dyDescent="0.25">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="259" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A259" s="40"/>
       <c r="B259" s="20" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C259" s="13"/>
       <c r="D259" s="39"/>
@@ -9264,12 +9279,12 @@
       <c r="I259" s="9"/>
       <c r="J259" s="11"/>
       <c r="K259" s="20" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="260" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A260" s="48" t="s">
         <v>166</v>
-      </c>
-    </row>
-    <row r="260" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A260" s="48" t="s">
-        <v>167</v>
       </c>
       <c r="B260" s="20"/>
       <c r="C260" s="13"/>
@@ -9285,12 +9300,12 @@
       <c r="J260" s="11"/>
       <c r="K260" s="20"/>
     </row>
-    <row r="261" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A261" s="40">
         <v>42736</v>
       </c>
       <c r="B261" s="20" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C261" s="13">
         <v>1.25</v>
@@ -9308,13 +9323,13 @@
       <c r="I261" s="9"/>
       <c r="J261" s="11"/>
       <c r="K261" s="20" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="262" spans="1:11" x14ac:dyDescent="0.25">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="262" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A262" s="40"/>
       <c r="B262" s="20" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C262" s="13"/>
       <c r="D262" s="39"/>
@@ -9327,16 +9342,16 @@
       <c r="I262" s="9"/>
       <c r="J262" s="11"/>
       <c r="K262" s="20" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="263" spans="1:11" x14ac:dyDescent="0.25">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="263" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A263" s="40">
         <f>EDATE(A261,1)</f>
         <v>42767</v>
       </c>
       <c r="B263" s="20" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C263" s="13">
         <v>1.25</v>
@@ -9354,13 +9369,13 @@
       <c r="I263" s="9"/>
       <c r="J263" s="11"/>
       <c r="K263" s="20" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="264" spans="1:11" x14ac:dyDescent="0.25">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="264" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A264" s="40"/>
       <c r="B264" s="20" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C264" s="13"/>
       <c r="D264" s="39"/>
@@ -9376,10 +9391,10 @@
       <c r="I264" s="9"/>
       <c r="J264" s="11"/>
       <c r="K264" s="20" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="265" spans="1:11" x14ac:dyDescent="0.25">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="265" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A265" s="40">
         <f>EDATE(A263,1)</f>
         <v>42795</v>
@@ -9400,13 +9415,13 @@
       <c r="J265" s="11"/>
       <c r="K265" s="20"/>
     </row>
-    <row r="266" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A266" s="40">
         <f>EDATE(A265,1)</f>
         <v>42826</v>
       </c>
       <c r="B266" s="20" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C266" s="13">
         <v>1.25</v>
@@ -9424,13 +9439,13 @@
       <c r="I266" s="9"/>
       <c r="J266" s="11"/>
       <c r="K266" s="20" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="267" spans="1:11" x14ac:dyDescent="0.25">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="267" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A267" s="40"/>
       <c r="B267" s="20" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C267" s="13"/>
       <c r="D267" s="39"/>
@@ -9444,16 +9459,16 @@
       <c r="I267" s="9"/>
       <c r="J267" s="11"/>
       <c r="K267" s="20" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="268" spans="1:11" x14ac:dyDescent="0.25">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="268" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A268" s="40">
         <f>EDATE(A266,1)</f>
         <v>42856</v>
       </c>
       <c r="B268" s="20" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C268" s="13">
         <v>1.25</v>
@@ -9471,10 +9486,10 @@
       <c r="I268" s="9"/>
       <c r="J268" s="11"/>
       <c r="K268" s="20" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="269" spans="1:11" x14ac:dyDescent="0.25">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="269" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A269" s="40">
         <f t="shared" ref="A269:A276" si="16">EDATE(A268,1)</f>
         <v>42887</v>
@@ -9495,13 +9510,13 @@
       <c r="J269" s="12"/>
       <c r="K269" s="15"/>
     </row>
-    <row r="270" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A270" s="40">
         <f t="shared" si="16"/>
         <v>42917</v>
       </c>
       <c r="B270" s="20" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C270" s="13">
         <v>1.25</v>
@@ -9519,10 +9534,10 @@
       <c r="I270" s="9"/>
       <c r="J270" s="11"/>
       <c r="K270" s="20" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="271" spans="1:11" x14ac:dyDescent="0.25">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="271" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A271" s="40">
         <f t="shared" si="16"/>
         <v>42948</v>
@@ -9543,13 +9558,13 @@
       <c r="J271" s="11"/>
       <c r="K271" s="20"/>
     </row>
-    <row r="272" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A272" s="40">
         <f t="shared" si="16"/>
         <v>42979</v>
       </c>
       <c r="B272" s="20" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C272" s="13">
         <v>1.25</v>
@@ -9567,13 +9582,13 @@
       <c r="I272" s="9"/>
       <c r="J272" s="11"/>
       <c r="K272" s="20" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="273" spans="1:11" x14ac:dyDescent="0.25">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="273" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A273" s="40"/>
       <c r="B273" s="20" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C273" s="13"/>
       <c r="D273" s="39"/>
@@ -9589,16 +9604,16 @@
       <c r="I273" s="9"/>
       <c r="J273" s="11"/>
       <c r="K273" s="20" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="274" spans="1:11" x14ac:dyDescent="0.25">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="274" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A274" s="40">
         <f>EDATE(A272,1)</f>
         <v>43009</v>
       </c>
       <c r="B274" s="20" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C274" s="13">
         <v>1.25</v>
@@ -9619,13 +9634,13 @@
         <v>45202</v>
       </c>
     </row>
-    <row r="275" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A275" s="40">
         <f t="shared" si="16"/>
         <v>43040</v>
       </c>
       <c r="B275" s="20" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C275" s="13">
         <v>1.25</v>
@@ -9646,13 +9661,13 @@
         <v>45237</v>
       </c>
     </row>
-    <row r="276" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A276" s="40">
         <f t="shared" si="16"/>
         <v>43070</v>
       </c>
       <c r="B276" s="20" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C276" s="13">
         <v>1.25</v>
@@ -9668,12 +9683,12 @@
       <c r="I276" s="9"/>
       <c r="J276" s="11"/>
       <c r="K276" s="20" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="277" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A277" s="48" t="s">
         <v>179</v>
-      </c>
-    </row>
-    <row r="277" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A277" s="48" t="s">
-        <v>180</v>
       </c>
       <c r="B277" s="20"/>
       <c r="C277" s="13"/>
@@ -9689,7 +9704,7 @@
       <c r="J277" s="11"/>
       <c r="K277" s="20"/>
     </row>
-    <row r="278" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A278" s="40">
         <v>43101</v>
       </c>
@@ -9709,7 +9724,7 @@
       <c r="J278" s="11"/>
       <c r="K278" s="20"/>
     </row>
-    <row r="279" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A279" s="40">
         <f>EDATE(A278,1)</f>
         <v>43132</v>
@@ -9730,7 +9745,7 @@
       <c r="J279" s="11"/>
       <c r="K279" s="20"/>
     </row>
-    <row r="280" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A280" s="40">
         <f t="shared" ref="A280:A291" si="17">EDATE(A279,1)</f>
         <v>43160</v>
@@ -9751,13 +9766,13 @@
       <c r="J280" s="11"/>
       <c r="K280" s="20"/>
     </row>
-    <row r="281" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A281" s="40">
         <f t="shared" si="17"/>
         <v>43191</v>
       </c>
       <c r="B281" s="20" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C281" s="13">
         <v>1.25</v>
@@ -9773,13 +9788,13 @@
       <c r="I281" s="9"/>
       <c r="J281" s="11"/>
       <c r="K281" s="20" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="282" spans="1:11" x14ac:dyDescent="0.25">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="282" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A282" s="40"/>
       <c r="B282" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C282" s="13"/>
       <c r="D282" s="39"/>
@@ -9793,10 +9808,10 @@
       <c r="I282" s="9"/>
       <c r="J282" s="11"/>
       <c r="K282" s="20" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="283" spans="1:11" x14ac:dyDescent="0.25">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="283" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A283" s="40">
         <f>EDATE(A281,1)</f>
         <v>43221</v>
@@ -9817,7 +9832,7 @@
       <c r="J283" s="11"/>
       <c r="K283" s="20"/>
     </row>
-    <row r="284" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A284" s="40">
         <f t="shared" si="17"/>
         <v>43252</v>
@@ -9838,7 +9853,7 @@
       <c r="J284" s="11"/>
       <c r="K284" s="20"/>
     </row>
-    <row r="285" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A285" s="40">
         <f t="shared" si="17"/>
         <v>43282</v>
@@ -9859,13 +9874,13 @@
       <c r="J285" s="11"/>
       <c r="K285" s="20"/>
     </row>
-    <row r="286" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A286" s="40">
         <f t="shared" si="17"/>
         <v>43313</v>
       </c>
       <c r="B286" s="20" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C286" s="13">
         <v>1.25</v>
@@ -9883,16 +9898,16 @@
       <c r="I286" s="9"/>
       <c r="J286" s="11"/>
       <c r="K286" s="20" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="287" spans="1:11" x14ac:dyDescent="0.25">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="287" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A287" s="40">
         <f t="shared" si="17"/>
         <v>43344</v>
       </c>
       <c r="B287" s="20" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C287" s="13">
         <v>1.25</v>
@@ -9910,13 +9925,13 @@
       <c r="I287" s="9"/>
       <c r="J287" s="11"/>
       <c r="K287" s="51" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="288" spans="1:11" x14ac:dyDescent="0.25">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="288" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A288" s="40"/>
       <c r="B288" s="20" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C288" s="13"/>
       <c r="D288" s="39">
@@ -9932,10 +9947,10 @@
       <c r="I288" s="9"/>
       <c r="J288" s="11"/>
       <c r="K288" s="51" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="289" spans="1:11" x14ac:dyDescent="0.25">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="289" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A289" s="40">
         <f>EDATE(A287,1)</f>
         <v>43374</v>
@@ -9956,7 +9971,7 @@
       <c r="J289" s="11"/>
       <c r="K289" s="20"/>
     </row>
-    <row r="290" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A290" s="40">
         <f t="shared" si="17"/>
         <v>43405</v>
@@ -9977,13 +9992,13 @@
       <c r="J290" s="11"/>
       <c r="K290" s="20"/>
     </row>
-    <row r="291" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A291" s="40">
         <f t="shared" si="17"/>
         <v>43435</v>
       </c>
       <c r="B291" s="20" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C291" s="13">
         <v>1.25</v>
@@ -10001,12 +10016,12 @@
       <c r="I291" s="9"/>
       <c r="J291" s="11"/>
       <c r="K291" s="20" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="292" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A292" s="48" t="s">
         <v>186</v>
-      </c>
-    </row>
-    <row r="292" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A292" s="48" t="s">
-        <v>187</v>
       </c>
       <c r="B292" s="20"/>
       <c r="C292" s="13"/>
@@ -10022,12 +10037,12 @@
       <c r="J292" s="11"/>
       <c r="K292" s="20"/>
     </row>
-    <row r="293" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A293" s="40">
         <v>43466</v>
       </c>
       <c r="B293" s="20" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C293" s="13">
         <v>1.25</v>
@@ -10045,16 +10060,16 @@
       <c r="I293" s="9"/>
       <c r="J293" s="11"/>
       <c r="K293" s="20" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="294" spans="1:11" x14ac:dyDescent="0.25">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="294" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A294" s="40">
         <f>EDATE(A293,1)</f>
         <v>43497</v>
       </c>
       <c r="B294" s="20" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C294" s="13">
         <v>1.25</v>
@@ -10072,10 +10087,10 @@
       <c r="I294" s="9"/>
       <c r="J294" s="11"/>
       <c r="K294" s="20" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="295" spans="1:11" x14ac:dyDescent="0.25">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="295" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A295" s="40">
         <f t="shared" ref="A295:A304" si="18">EDATE(A294,1)</f>
         <v>43525</v>
@@ -10096,7 +10111,7 @@
       <c r="J295" s="11"/>
       <c r="K295" s="20"/>
     </row>
-    <row r="296" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A296" s="40">
         <f t="shared" si="18"/>
         <v>43556</v>
@@ -10117,13 +10132,13 @@
       <c r="J296" s="11"/>
       <c r="K296" s="20"/>
     </row>
-    <row r="297" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A297" s="40">
         <f t="shared" si="18"/>
         <v>43586</v>
       </c>
       <c r="B297" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C297" s="13">
         <v>1.25</v>
@@ -10141,16 +10156,16 @@
       <c r="I297" s="9"/>
       <c r="J297" s="11"/>
       <c r="K297" s="20" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="298" spans="1:11" x14ac:dyDescent="0.25">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="298" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A298" s="40">
         <f t="shared" si="18"/>
         <v>43617</v>
       </c>
       <c r="B298" s="20" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C298" s="13">
         <v>1.25</v>
@@ -10168,16 +10183,16 @@
       <c r="I298" s="9"/>
       <c r="J298" s="11"/>
       <c r="K298" s="20" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="299" spans="1:11" x14ac:dyDescent="0.25">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="299" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A299" s="40">
         <f t="shared" si="18"/>
         <v>43647</v>
       </c>
       <c r="B299" s="20" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C299" s="13">
         <v>1.25</v>
@@ -10195,13 +10210,13 @@
       <c r="I299" s="9"/>
       <c r="J299" s="11"/>
       <c r="K299" s="20" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="300" spans="1:11" x14ac:dyDescent="0.25">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="300" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A300" s="40"/>
       <c r="B300" s="20" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C300" s="13"/>
       <c r="D300" s="39"/>
@@ -10215,10 +10230,10 @@
       <c r="I300" s="9"/>
       <c r="J300" s="11"/>
       <c r="K300" s="20" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="301" spans="1:11" x14ac:dyDescent="0.25">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="301" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A301" s="40">
         <f>EDATE(A299,1)</f>
         <v>43678</v>
@@ -10239,13 +10254,13 @@
       <c r="J301" s="11"/>
       <c r="K301" s="20"/>
     </row>
-    <row r="302" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A302" s="40">
         <f t="shared" si="18"/>
         <v>43709</v>
       </c>
       <c r="B302" s="15" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C302" s="13">
         <v>1.25</v>
@@ -10263,10 +10278,10 @@
       <c r="I302" s="54"/>
       <c r="J302" s="12"/>
       <c r="K302" s="15" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="303" spans="1:11" x14ac:dyDescent="0.25">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="303" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A303" s="40">
         <f t="shared" si="18"/>
         <v>43739</v>
@@ -10287,13 +10302,13 @@
       <c r="J303" s="11"/>
       <c r="K303" s="20"/>
     </row>
-    <row r="304" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A304" s="40">
         <f t="shared" si="18"/>
         <v>43770</v>
       </c>
       <c r="B304" s="20" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C304" s="13">
         <v>1.25</v>
@@ -10311,13 +10326,13 @@
       <c r="I304" s="9"/>
       <c r="J304" s="11"/>
       <c r="K304" s="20" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="305" spans="1:11" x14ac:dyDescent="0.25">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="305" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A305" s="40"/>
       <c r="B305" s="20" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C305" s="13"/>
       <c r="D305" s="39"/>
@@ -10333,13 +10348,13 @@
       <c r="I305" s="9"/>
       <c r="J305" s="11"/>
       <c r="K305" s="20" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="306" spans="1:11" x14ac:dyDescent="0.25">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="306" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A306" s="40"/>
       <c r="B306" s="20" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C306" s="13"/>
       <c r="D306" s="39">
@@ -10355,10 +10370,10 @@
       <c r="I306" s="9"/>
       <c r="J306" s="11"/>
       <c r="K306" s="20" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="307" spans="1:11" x14ac:dyDescent="0.25">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="307" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A307" s="40">
         <f>EDATE(A304,1)</f>
         <v>43800</v>
@@ -10379,9 +10394,9 @@
       <c r="J307" s="11"/>
       <c r="K307" s="20"/>
     </row>
-    <row r="308" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A308" s="48" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B308" s="20"/>
       <c r="C308" s="13"/>
@@ -10397,12 +10412,12 @@
       <c r="J308" s="11"/>
       <c r="K308" s="20"/>
     </row>
-    <row r="309" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A309" s="40">
         <v>43831</v>
       </c>
       <c r="B309" s="20" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C309" s="13">
         <v>1.25</v>
@@ -10420,16 +10435,16 @@
       <c r="I309" s="9"/>
       <c r="J309" s="11"/>
       <c r="K309" s="20" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="310" spans="1:11" x14ac:dyDescent="0.25">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="310" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A310" s="40">
         <f>EDATE(A309,1)</f>
         <v>43862</v>
       </c>
       <c r="B310" s="20" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C310" s="13">
         <v>1.25</v>
@@ -10445,13 +10460,13 @@
       <c r="I310" s="9"/>
       <c r="J310" s="11"/>
       <c r="K310" s="20" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="311" spans="1:11" x14ac:dyDescent="0.25">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="311" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A311" s="40"/>
       <c r="B311" s="20" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C311" s="13"/>
       <c r="D311" s="39"/>
@@ -10465,13 +10480,13 @@
       <c r="I311" s="9"/>
       <c r="J311" s="11"/>
       <c r="K311" s="20" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="312" spans="1:11" x14ac:dyDescent="0.25">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="312" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A312" s="40"/>
       <c r="B312" s="20" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C312" s="13"/>
       <c r="D312" s="39"/>
@@ -10487,10 +10502,10 @@
       <c r="I312" s="9"/>
       <c r="J312" s="11"/>
       <c r="K312" s="20" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="313" spans="1:11" x14ac:dyDescent="0.25">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="313" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A313" s="40">
         <f>EDATE(A310,1)</f>
         <v>43891</v>
@@ -10511,7 +10526,7 @@
       <c r="J313" s="11"/>
       <c r="K313" s="20"/>
     </row>
-    <row r="314" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A314" s="40">
         <f t="shared" ref="A314:A322" si="19">EDATE(A313,1)</f>
         <v>43922</v>
@@ -10532,7 +10547,7 @@
       <c r="J314" s="11"/>
       <c r="K314" s="20"/>
     </row>
-    <row r="315" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A315" s="40">
         <f t="shared" si="19"/>
         <v>43952</v>
@@ -10553,7 +10568,7 @@
       <c r="J315" s="11"/>
       <c r="K315" s="20"/>
     </row>
-    <row r="316" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A316" s="40">
         <f t="shared" si="19"/>
         <v>43983</v>
@@ -10574,7 +10589,7 @@
       <c r="J316" s="11"/>
       <c r="K316" s="20"/>
     </row>
-    <row r="317" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A317" s="40">
         <f t="shared" si="19"/>
         <v>44013</v>
@@ -10595,7 +10610,7 @@
       <c r="J317" s="11"/>
       <c r="K317" s="20"/>
     </row>
-    <row r="318" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A318" s="40">
         <f t="shared" si="19"/>
         <v>44044</v>
@@ -10616,7 +10631,7 @@
       <c r="J318" s="11"/>
       <c r="K318" s="20"/>
     </row>
-    <row r="319" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A319" s="40">
         <f t="shared" si="19"/>
         <v>44075</v>
@@ -10637,7 +10652,7 @@
       <c r="J319" s="11"/>
       <c r="K319" s="20"/>
     </row>
-    <row r="320" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A320" s="40">
         <f t="shared" si="19"/>
         <v>44105</v>
@@ -10658,7 +10673,7 @@
       <c r="J320" s="11"/>
       <c r="K320" s="20"/>
     </row>
-    <row r="321" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A321" s="40">
         <f t="shared" si="19"/>
         <v>44136</v>
@@ -10679,13 +10694,13 @@
       <c r="J321" s="11"/>
       <c r="K321" s="20"/>
     </row>
-    <row r="322" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A322" s="40">
         <f t="shared" si="19"/>
         <v>44166</v>
       </c>
       <c r="B322" s="20" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C322" s="13">
         <v>1.25</v>
@@ -10704,9 +10719,9 @@
       <c r="J322" s="11"/>
       <c r="K322" s="20"/>
     </row>
-    <row r="323" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A323" s="48" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B323" s="20"/>
       <c r="C323" s="13"/>
@@ -10722,7 +10737,7 @@
       <c r="J323" s="11"/>
       <c r="K323" s="20"/>
     </row>
-    <row r="324" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A324" s="41">
         <v>44197</v>
       </c>
@@ -10742,7 +10757,7 @@
       <c r="J324" s="12"/>
       <c r="K324" s="15"/>
     </row>
-    <row r="325" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A325" s="40">
         <f>EDATE(A324,1)</f>
         <v>44228</v>
@@ -10763,7 +10778,7 @@
       <c r="J325" s="11"/>
       <c r="K325" s="20"/>
     </row>
-    <row r="326" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A326" s="40">
         <f t="shared" ref="A326:A335" si="20">EDATE(A325,1)</f>
         <v>44256</v>
@@ -10784,7 +10799,7 @@
       <c r="J326" s="11"/>
       <c r="K326" s="20"/>
     </row>
-    <row r="327" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A327" s="40">
         <f t="shared" si="20"/>
         <v>44287</v>
@@ -10805,7 +10820,7 @@
       <c r="J327" s="11"/>
       <c r="K327" s="20"/>
     </row>
-    <row r="328" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A328" s="40">
         <f t="shared" si="20"/>
         <v>44317</v>
@@ -10826,7 +10841,7 @@
       <c r="J328" s="11"/>
       <c r="K328" s="20"/>
     </row>
-    <row r="329" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A329" s="40">
         <f t="shared" si="20"/>
         <v>44348</v>
@@ -10847,7 +10862,7 @@
       <c r="J329" s="11"/>
       <c r="K329" s="20"/>
     </row>
-    <row r="330" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A330" s="40">
         <f t="shared" si="20"/>
         <v>44378</v>
@@ -10868,7 +10883,7 @@
       <c r="J330" s="11"/>
       <c r="K330" s="20"/>
     </row>
-    <row r="331" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A331" s="40">
         <f t="shared" si="20"/>
         <v>44409</v>
@@ -10889,7 +10904,7 @@
       <c r="J331" s="11"/>
       <c r="K331" s="20"/>
     </row>
-    <row r="332" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A332" s="40">
         <f t="shared" si="20"/>
         <v>44440</v>
@@ -10910,7 +10925,7 @@
       <c r="J332" s="11"/>
       <c r="K332" s="20"/>
     </row>
-    <row r="333" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A333" s="40">
         <f t="shared" si="20"/>
         <v>44470</v>
@@ -10931,7 +10946,7 @@
       <c r="J333" s="11"/>
       <c r="K333" s="20"/>
     </row>
-    <row r="334" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A334" s="40">
         <f t="shared" si="20"/>
         <v>44501</v>
@@ -10952,13 +10967,13 @@
       <c r="J334" s="11"/>
       <c r="K334" s="20"/>
     </row>
-    <row r="335" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A335" s="40">
         <f t="shared" si="20"/>
         <v>44531</v>
       </c>
       <c r="B335" s="20" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C335" s="42">
         <v>1.25</v>
@@ -10977,9 +10992,9 @@
       <c r="J335" s="11"/>
       <c r="K335" s="20"/>
     </row>
-    <row r="336" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A336" s="48" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B336" s="20"/>
       <c r="C336" s="13"/>
@@ -10995,7 +11010,7 @@
       <c r="J336" s="11"/>
       <c r="K336" s="20"/>
     </row>
-    <row r="337" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A337" s="40">
         <v>44562</v>
       </c>
@@ -11015,7 +11030,7 @@
       <c r="J337" s="11"/>
       <c r="K337" s="20"/>
     </row>
-    <row r="338" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A338" s="41">
         <f>EDATE(A337,1)</f>
         <v>44593</v>
@@ -11036,13 +11051,13 @@
       <c r="J338" s="12"/>
       <c r="K338" s="15"/>
     </row>
-    <row r="339" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A339" s="41">
         <f t="shared" ref="A339:A347" si="21">EDATE(A338,1)</f>
         <v>44621</v>
       </c>
       <c r="B339" s="20" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C339" s="13">
         <v>1.25</v>
@@ -11060,13 +11075,13 @@
       <c r="I339" s="9"/>
       <c r="J339" s="11"/>
       <c r="K339" s="20" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="340" spans="1:11" x14ac:dyDescent="0.25">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="340" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A340" s="41"/>
       <c r="B340" s="20" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C340" s="13"/>
       <c r="D340" s="39"/>
@@ -11077,13 +11092,13 @@
       <c r="I340" s="9"/>
       <c r="J340" s="11"/>
       <c r="K340" s="20" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="341" spans="1:11" x14ac:dyDescent="0.25">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="341" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A341" s="41"/>
       <c r="B341" s="20" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C341" s="13"/>
       <c r="D341" s="39"/>
@@ -11094,10 +11109,10 @@
       <c r="I341" s="9"/>
       <c r="J341" s="11"/>
       <c r="K341" s="20" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="342" spans="1:11" x14ac:dyDescent="0.25">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="342" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A342" s="41">
         <f>EDATE(A339,1)</f>
         <v>44652</v>
@@ -11118,7 +11133,7 @@
       <c r="J342" s="11"/>
       <c r="K342" s="20"/>
     </row>
-    <row r="343" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A343" s="41">
         <f t="shared" si="21"/>
         <v>44682</v>
@@ -11139,13 +11154,13 @@
       <c r="J343" s="11"/>
       <c r="K343" s="20"/>
     </row>
-    <row r="344" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A344" s="41">
         <f t="shared" si="21"/>
         <v>44713</v>
       </c>
       <c r="B344" s="20" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C344" s="13">
         <v>1.25</v>
@@ -11166,10 +11181,10 @@
         <v>11444</v>
       </c>
     </row>
-    <row r="345" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A345" s="41"/>
       <c r="B345" s="20" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C345" s="13"/>
       <c r="D345" s="39"/>
@@ -11185,10 +11200,10 @@
       <c r="I345" s="9"/>
       <c r="J345" s="11"/>
       <c r="K345" s="20" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="346" spans="1:11" x14ac:dyDescent="0.25">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="346" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A346" s="41">
         <f>EDATE(A344,1)</f>
         <v>44743</v>
@@ -11209,7 +11224,7 @@
       <c r="J346" s="11"/>
       <c r="K346" s="20"/>
     </row>
-    <row r="347" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A347" s="41">
         <f t="shared" si="21"/>
         <v>44774</v>
@@ -11230,13 +11245,13 @@
       <c r="J347" s="11"/>
       <c r="K347" s="20"/>
     </row>
-    <row r="348" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A348" s="41">
         <f>EDATE(A347,1)</f>
         <v>44805</v>
       </c>
       <c r="B348" s="15" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C348" s="13">
         <v>1.25</v>
@@ -11255,7 +11270,7 @@
       <c r="J348" s="12"/>
       <c r="K348" s="15"/>
     </row>
-    <row r="349" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A349" s="40">
         <v>44835</v>
       </c>
@@ -11275,7 +11290,7 @@
       <c r="J349" s="11"/>
       <c r="K349" s="20"/>
     </row>
-    <row r="350" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A350" s="40">
         <v>44866</v>
       </c>
@@ -11295,12 +11310,12 @@
       <c r="J350" s="11"/>
       <c r="K350" s="20"/>
     </row>
-    <row r="351" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A351" s="40">
         <v>44896</v>
       </c>
       <c r="B351" s="15" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C351" s="13">
         <v>1.25</v>
@@ -11318,12 +11333,12 @@
       <c r="I351" s="54"/>
       <c r="J351" s="12"/>
       <c r="K351" s="15" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="352" spans="1:11" x14ac:dyDescent="0.25">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="352" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A352" s="48" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B352" s="15"/>
       <c r="C352" s="13"/>
@@ -11339,9 +11354,9 @@
       <c r="J352" s="12"/>
       <c r="K352" s="15"/>
     </row>
-    <row r="353" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A353" s="40">
-        <v>44927</v>
+        <v>44957</v>
       </c>
       <c r="B353" s="20"/>
       <c r="C353" s="13">
@@ -11359,9 +11374,9 @@
       <c r="J353" s="11"/>
       <c r="K353" s="20"/>
     </row>
-    <row r="354" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A354" s="40">
-        <v>44958</v>
+        <v>44985</v>
       </c>
       <c r="B354" s="20"/>
       <c r="C354" s="13">
@@ -11379,9 +11394,9 @@
       <c r="J354" s="11"/>
       <c r="K354" s="20"/>
     </row>
-    <row r="355" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A355" s="40">
-        <v>44986</v>
+        <v>45016</v>
       </c>
       <c r="B355" s="20"/>
       <c r="C355" s="13">
@@ -11399,9 +11414,9 @@
       <c r="J355" s="11"/>
       <c r="K355" s="20"/>
     </row>
-    <row r="356" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A356" s="40">
-        <v>45017</v>
+        <v>45046</v>
       </c>
       <c r="B356" s="20"/>
       <c r="C356" s="13">
@@ -11419,12 +11434,12 @@
       <c r="J356" s="11"/>
       <c r="K356" s="20"/>
     </row>
-    <row r="357" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A357" s="40">
-        <v>45047</v>
+        <v>45077</v>
       </c>
       <c r="B357" s="20" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C357" s="13">
         <v>1.25</v>
@@ -11442,12 +11457,12 @@
       <c r="I357" s="9"/>
       <c r="J357" s="11"/>
       <c r="K357" s="20" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="358" spans="1:11" x14ac:dyDescent="0.25">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="358" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A358" s="40">
-        <v>45078</v>
+        <v>45107</v>
       </c>
       <c r="B358" s="20"/>
       <c r="C358" s="13">
@@ -11465,12 +11480,12 @@
       <c r="J358" s="11"/>
       <c r="K358" s="20"/>
     </row>
-    <row r="359" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A359" s="40">
-        <v>45108</v>
+        <v>45138</v>
       </c>
       <c r="B359" s="20" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C359" s="13">
         <v>1.25</v>
@@ -11488,12 +11503,12 @@
       <c r="I359" s="9"/>
       <c r="J359" s="11"/>
       <c r="K359" s="20" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="360" spans="1:11" x14ac:dyDescent="0.25">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="360" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A360" s="40">
-        <v>45139</v>
+        <v>45169</v>
       </c>
       <c r="B360" s="20"/>
       <c r="C360" s="13">
@@ -11511,12 +11526,12 @@
       <c r="J360" s="11"/>
       <c r="K360" s="20"/>
     </row>
-    <row r="361" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A361" s="40">
-        <v>45170</v>
+        <v>45199</v>
       </c>
       <c r="B361" s="20" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C361" s="13">
         <v>1.25</v>
@@ -11537,10 +11552,10 @@
         <v>45174</v>
       </c>
     </row>
-    <row r="362" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A362" s="40"/>
       <c r="B362" s="20" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C362" s="13"/>
       <c r="D362" s="39"/>
@@ -11556,64 +11571,88 @@
       <c r="I362" s="9"/>
       <c r="J362" s="11"/>
       <c r="K362" s="51" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="363" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A363" s="40">
-        <v>45200</v>
-      </c>
-      <c r="B363" s="20"/>
+        <v>218</v>
+      </c>
+    </row>
+    <row r="363" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A363" s="40"/>
+      <c r="B363" s="20" t="s">
+        <v>217</v>
+      </c>
       <c r="C363" s="13"/>
       <c r="D363" s="39"/>
       <c r="E363" s="9"/>
       <c r="F363" s="20"/>
-      <c r="G363" s="42" t="str">
+      <c r="G363" s="13" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H363" s="39"/>
+      <c r="H363" s="39">
+        <v>1</v>
+      </c>
       <c r="I363" s="9"/>
       <c r="J363" s="11"/>
-      <c r="K363" s="20"/>
-    </row>
-    <row r="364" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A364" s="40"/>
+      <c r="K363" s="51">
+        <v>45199</v>
+      </c>
+    </row>
+    <row r="364" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A364" s="40">
+        <v>45230</v>
+      </c>
       <c r="B364" s="20"/>
-      <c r="C364" s="13"/>
+      <c r="C364" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D364" s="39"/>
       <c r="E364" s="9"/>
       <c r="F364" s="20"/>
-      <c r="G364" s="42" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G364" s="42">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H364" s="39"/>
       <c r="I364" s="9"/>
       <c r="J364" s="11"/>
       <c r="K364" s="20"/>
     </row>
-    <row r="365" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A365" s="40"/>
-      <c r="B365" s="20"/>
-      <c r="C365" s="13"/>
+    <row r="365" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A365" s="40">
+        <v>45260</v>
+      </c>
+      <c r="B365" s="20" t="s">
+        <v>215</v>
+      </c>
+      <c r="C365" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D365" s="39"/>
       <c r="E365" s="9"/>
       <c r="F365" s="20"/>
-      <c r="G365" s="42" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H365" s="39"/>
+      <c r="G365" s="42">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H365" s="39">
+        <v>2</v>
+      </c>
       <c r="I365" s="9"/>
       <c r="J365" s="11"/>
-      <c r="K365" s="20"/>
-    </row>
-    <row r="366" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A366" s="40"/>
-      <c r="B366" s="20"/>
+      <c r="K365" s="20" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="366" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A366" s="40">
+        <v>45291</v>
+      </c>
+      <c r="B366" s="20" t="s">
+        <v>211</v>
+      </c>
       <c r="C366" s="13"/>
-      <c r="D366" s="39"/>
+      <c r="D366" s="39">
+        <v>5</v>
+      </c>
       <c r="E366" s="9"/>
       <c r="F366" s="20"/>
       <c r="G366" s="42" t="str">
@@ -11623,10 +11662,14 @@
       <c r="H366" s="39"/>
       <c r="I366" s="9"/>
       <c r="J366" s="11"/>
-      <c r="K366" s="20"/>
-    </row>
-    <row r="367" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A367" s="40"/>
+      <c r="K366" s="20" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="367" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A367" s="40">
+        <v>45322</v>
+      </c>
       <c r="B367" s="20"/>
       <c r="C367" s="13"/>
       <c r="D367" s="39"/>
@@ -11641,8 +11684,10 @@
       <c r="J367" s="11"/>
       <c r="K367" s="20"/>
     </row>
-    <row r="368" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A368" s="40"/>
+    <row r="368" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A368" s="40">
+        <v>45351</v>
+      </c>
       <c r="B368" s="20"/>
       <c r="C368" s="13"/>
       <c r="D368" s="39"/>
@@ -11657,8 +11702,10 @@
       <c r="J368" s="11"/>
       <c r="K368" s="20"/>
     </row>
-    <row r="369" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A369" s="40"/>
+    <row r="369" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A369" s="40">
+        <v>45382</v>
+      </c>
       <c r="B369" s="20"/>
       <c r="C369" s="13"/>
       <c r="D369" s="39"/>
@@ -11672,6 +11719,42 @@
       <c r="I369" s="9"/>
       <c r="J369" s="11"/>
       <c r="K369" s="20"/>
+    </row>
+    <row r="370" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A370" s="40">
+        <v>45412</v>
+      </c>
+      <c r="B370" s="20"/>
+      <c r="C370" s="13"/>
+      <c r="D370" s="39"/>
+      <c r="E370" s="9"/>
+      <c r="F370" s="20"/>
+      <c r="G370" s="42" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H370" s="39"/>
+      <c r="I370" s="9"/>
+      <c r="J370" s="11"/>
+      <c r="K370" s="20"/>
+    </row>
+    <row r="371" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A371" s="40">
+        <v>45443</v>
+      </c>
+      <c r="B371" s="20"/>
+      <c r="C371" s="13"/>
+      <c r="D371" s="39"/>
+      <c r="E371" s="9"/>
+      <c r="F371" s="20"/>
+      <c r="G371" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H371" s="39"/>
+      <c r="I371" s="9"/>
+      <c r="J371" s="11"/>
+      <c r="K371" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -11688,10 +11771,10 @@
     <mergeCell ref="F4:G4"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{00000000-0002-0000-0100-000001000000}">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
   </dataValidations>
@@ -11714,7 +11797,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:L67"/>
   <sheetViews>
@@ -11722,21 +11805,21 @@
       <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.28515625" customWidth="1"/>
-    <col min="2" max="2" width="20.7109375" customWidth="1"/>
-    <col min="4" max="4" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.140625" customWidth="1"/>
-    <col min="9" max="9" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.28515625" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="37" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="15.5703125" customWidth="1"/>
+    <col min="1" max="1" width="21.33203125" customWidth="1"/>
+    <col min="2" max="2" width="20.6640625" customWidth="1"/>
+    <col min="4" max="4" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.109375" customWidth="1"/>
+    <col min="9" max="9" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.33203125" customWidth="1"/>
+    <col min="11" max="11" width="14.88671875" style="37" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="15.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="D1" s="65" t="s">
         <v>33</v>
       </c>
@@ -11749,7 +11832,7 @@
       <c r="K1" s="66"/>
       <c r="L1" s="66"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="32" t="s">
         <v>24</v>
       </c>
@@ -11778,7 +11861,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="11">
         <v>0.20799999999999999</v>
       </c>
@@ -11808,17 +11891,17 @@
         <v>---</v>
       </c>
     </row>
-    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="G4" s="33"/>
       <c r="J4" s="1" t="str">
         <f>IF(TEXT(J3,"D")=1,1,TEXT(J3,"D"))</f>
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C6" s="38" t="s">
         <v>28</v>
       </c>
@@ -11839,7 +11922,7 @@
       <c r="K6" s="66"/>
       <c r="L6" s="66"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C7" s="37">
         <v>1</v>
       </c>
@@ -11866,7 +11949,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C8" s="37">
         <v>2</v>
       </c>
@@ -11892,7 +11975,7 @@
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C9" s="37">
         <v>3</v>
       </c>
@@ -11918,7 +12001,7 @@
         <v>8.3000000000000004E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C10" s="37">
         <v>4</v>
       </c>
@@ -11944,7 +12027,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C11" s="37">
         <v>5</v>
       </c>
@@ -11970,7 +12053,7 @@
         <v>0.16700000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C12" s="37">
         <v>6</v>
       </c>
@@ -11996,7 +12079,7 @@
         <v>0.20800000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C13" s="37">
         <v>7</v>
       </c>
@@ -12022,7 +12105,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C14" s="37">
         <v>8</v>
       </c>
@@ -12048,7 +12131,7 @@
         <v>0.29199999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C15" s="37">
         <v>9</v>
       </c>
@@ -12068,7 +12151,7 @@
         <v>0.33299999999999996</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C16" s="37">
         <v>10</v>
       </c>
@@ -12088,7 +12171,7 @@
         <v>0.37499999999999994</v>
       </c>
     </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C17" s="37">
         <v>11</v>
       </c>
@@ -12108,7 +12191,7 @@
         <v>0.41699999999999993</v>
       </c>
     </row>
-    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C18" s="37">
         <v>12</v>
       </c>
@@ -12129,7 +12212,7 @@
         <v>0.45799999999999991</v>
       </c>
     </row>
-    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C19" s="37">
         <v>13</v>
       </c>
@@ -12150,7 +12233,7 @@
         <v>0.49999999999999989</v>
       </c>
     </row>
-    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C20" s="37">
         <v>14</v>
       </c>
@@ -12171,7 +12254,7 @@
         <v>0.54199999999999993</v>
       </c>
     </row>
-    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C21" s="37">
         <v>15</v>
       </c>
@@ -12192,7 +12275,7 @@
         <v>0.58299999999999996</v>
       </c>
     </row>
-    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C22" s="37">
         <v>16</v>
       </c>
@@ -12213,7 +12296,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C23" s="37">
         <v>17</v>
       </c>
@@ -12234,7 +12317,7 @@
         <v>0.66700000000000004</v>
       </c>
     </row>
-    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C24" s="37">
         <v>18</v>
       </c>
@@ -12255,7 +12338,7 @@
         <v>0.70800000000000007</v>
       </c>
     </row>
-    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C25" s="37">
         <v>19</v>
       </c>
@@ -12276,7 +12359,7 @@
         <v>0.75000000000000011</v>
       </c>
     </row>
-    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C26" s="37">
         <v>20</v>
       </c>
@@ -12297,7 +12380,7 @@
         <v>0.79200000000000015</v>
       </c>
     </row>
-    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C27" s="37">
         <v>21</v>
       </c>
@@ -12318,7 +12401,7 @@
         <v>0.83300000000000018</v>
       </c>
     </row>
-    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C28" s="37">
         <v>22</v>
       </c>
@@ -12339,7 +12422,7 @@
         <v>0.87500000000000022</v>
       </c>
     </row>
-    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C29" s="37">
         <v>23</v>
       </c>
@@ -12360,7 +12443,7 @@
         <v>0.91700000000000026</v>
       </c>
     </row>
-    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C30" s="37">
         <v>24</v>
       </c>
@@ -12381,7 +12464,7 @@
         <v>0.9580000000000003</v>
       </c>
     </row>
-    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C31" s="37">
         <v>25</v>
       </c>
@@ -12402,7 +12485,7 @@
         <v>1.0000000000000002</v>
       </c>
     </row>
-    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C32" s="37">
         <v>26</v>
       </c>
@@ -12423,7 +12506,7 @@
         <v>1.0420000000000003</v>
       </c>
     </row>
-    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C33" s="37">
         <v>27</v>
       </c>
@@ -12444,7 +12527,7 @@
         <v>1.0830000000000002</v>
       </c>
     </row>
-    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C34" s="37">
         <v>28</v>
       </c>
@@ -12465,7 +12548,7 @@
         <v>1.1250000000000002</v>
       </c>
     </row>
-    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C35" s="37">
         <v>29</v>
       </c>
@@ -12486,7 +12569,7 @@
         <v>1.1670000000000003</v>
       </c>
     </row>
-    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C36" s="37">
         <v>30</v>
       </c>
@@ -12507,7 +12590,7 @@
         <v>1.2080000000000002</v>
       </c>
     </row>
-    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C37" s="37">
         <v>31</v>
       </c>
@@ -12528,7 +12611,7 @@
         <v>1.2500000000000002</v>
       </c>
     </row>
-    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C38" s="37">
         <v>32</v>
       </c>
@@ -12537,7 +12620,7 @@
       </c>
       <c r="G38"/>
     </row>
-    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C39" s="37">
         <v>33</v>
       </c>
@@ -12546,7 +12629,7 @@
       </c>
       <c r="G39"/>
     </row>
-    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C40" s="37">
         <v>34</v>
       </c>
@@ -12555,7 +12638,7 @@
       </c>
       <c r="G40"/>
     </row>
-    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C41" s="37">
         <v>35</v>
       </c>
@@ -12564,7 +12647,7 @@
       </c>
       <c r="G41"/>
     </row>
-    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C42" s="37">
         <v>36</v>
       </c>
@@ -12573,7 +12656,7 @@
       </c>
       <c r="G42"/>
     </row>
-    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C43" s="37">
         <v>37</v>
       </c>
@@ -12582,7 +12665,7 @@
       </c>
       <c r="G43"/>
     </row>
-    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C44" s="37">
         <v>38</v>
       </c>
@@ -12591,7 +12674,7 @@
       </c>
       <c r="G44"/>
     </row>
-    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C45" s="37">
         <v>39</v>
       </c>
@@ -12600,7 +12683,7 @@
       </c>
       <c r="G45"/>
     </row>
-    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C46" s="37">
         <v>40</v>
       </c>
@@ -12609,7 +12692,7 @@
       </c>
       <c r="G46"/>
     </row>
-    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C47" s="37">
         <v>41</v>
       </c>
@@ -12618,7 +12701,7 @@
       </c>
       <c r="G47"/>
     </row>
-    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C48" s="37">
         <v>42</v>
       </c>
@@ -12627,7 +12710,7 @@
       </c>
       <c r="G48"/>
     </row>
-    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C49" s="37">
         <v>43</v>
       </c>
@@ -12636,7 +12719,7 @@
       </c>
       <c r="G49"/>
     </row>
-    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C50" s="37">
         <v>44</v>
       </c>
@@ -12645,7 +12728,7 @@
       </c>
       <c r="G50"/>
     </row>
-    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C51" s="37">
         <v>45</v>
       </c>
@@ -12654,7 +12737,7 @@
       </c>
       <c r="G51"/>
     </row>
-    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C52" s="37">
         <v>46</v>
       </c>
@@ -12663,7 +12746,7 @@
       </c>
       <c r="G52"/>
     </row>
-    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C53" s="37">
         <v>47</v>
       </c>
@@ -12672,7 +12755,7 @@
       </c>
       <c r="G53"/>
     </row>
-    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C54" s="37">
         <v>48</v>
       </c>
@@ -12681,7 +12764,7 @@
       </c>
       <c r="G54"/>
     </row>
-    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C55" s="37">
         <v>49</v>
       </c>
@@ -12690,7 +12773,7 @@
       </c>
       <c r="G55"/>
     </row>
-    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C56" s="37">
         <v>50</v>
       </c>
@@ -12699,7 +12782,7 @@
       </c>
       <c r="G56"/>
     </row>
-    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C57" s="37">
         <v>51</v>
       </c>
@@ -12708,7 +12791,7 @@
       </c>
       <c r="G57"/>
     </row>
-    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C58" s="37">
         <v>52</v>
       </c>
@@ -12717,7 +12800,7 @@
       </c>
       <c r="G58"/>
     </row>
-    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C59" s="37">
         <v>53</v>
       </c>
@@ -12726,7 +12809,7 @@
       </c>
       <c r="G59"/>
     </row>
-    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C60" s="37">
         <v>54</v>
       </c>
@@ -12735,7 +12818,7 @@
       </c>
       <c r="G60"/>
     </row>
-    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C61" s="37">
         <v>55</v>
       </c>
@@ -12744,7 +12827,7 @@
       </c>
       <c r="G61"/>
     </row>
-    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C62" s="37">
         <v>56</v>
       </c>
@@ -12753,7 +12836,7 @@
       </c>
       <c r="G62"/>
     </row>
-    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C63" s="37">
         <v>57</v>
       </c>
@@ -12762,7 +12845,7 @@
       </c>
       <c r="G63"/>
     </row>
-    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C64" s="37">
         <v>58</v>
       </c>
@@ -12771,7 +12854,7 @@
       </c>
       <c r="G64"/>
     </row>
-    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C65" s="37">
         <v>59</v>
       </c>
@@ -12780,7 +12863,7 @@
       </c>
       <c r="G65"/>
     </row>
-    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C66" s="37">
         <v>60</v>
       </c>
@@ -12789,7 +12872,7 @@
       </c>
       <c r="G66"/>
     </row>
-    <row r="67" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="67" spans="3:12" x14ac:dyDescent="0.3">
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
       <c r="L67" s="1"/>
